--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806B537-681E-40C2-9319-E915C1BE0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5D4C7-D8AE-41A4-A439-006AA07BDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="540" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="3810" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="61">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -840,24 +840,29 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K45"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
     <col min="3" max="11" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5D4C7-D8AE-41A4-A439-006AA07BDC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E46F55D-02CC-49A8-AE5D-9052A88C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="3810" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="4155" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="60">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Dose with unit</t>
-  </si>
-  <si>
-    <t>Time5 (free text)</t>
   </si>
   <si>
     <t>Wild type</t>
@@ -837,25 +834,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
-    <col min="3" max="11" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -864,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -875,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>23</v>
@@ -884,30 +881,27 @@
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -929,15 +923,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -959,15 +953,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -989,15 +983,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -1019,15 +1013,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1049,15 +1043,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -1079,15 +1073,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1109,15 +1103,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -1139,15 +1133,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1169,15 +1163,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -1199,15 +1193,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1229,15 +1223,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1259,15 +1253,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1291,13 +1285,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -1321,13 +1315,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1351,13 +1345,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -1381,13 +1375,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1411,13 +1405,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -1441,13 +1435,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1471,13 +1465,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -1501,13 +1495,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1531,13 +1525,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -1561,13 +1555,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1591,13 +1585,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -1621,19 +1615,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
@@ -1653,19 +1647,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="6">
         <v>50</v>
@@ -1685,19 +1679,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="6">
         <v>58</v>
@@ -1717,19 +1711,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="6">
         <v>58</v>
@@ -1749,19 +1743,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="6">
         <v>47</v>
@@ -1781,19 +1775,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6">
         <v>47</v>
@@ -1813,19 +1807,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F34" s="6">
         <v>40</v>
@@ -1845,19 +1839,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F35" s="6">
         <v>40</v>
@@ -1877,19 +1871,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="6">
         <v>42</v>
@@ -1909,19 +1903,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="6">
         <v>42</v>
@@ -1941,19 +1935,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="6">
         <v>40</v>
@@ -1973,19 +1967,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="6">
         <v>40</v>
@@ -2005,19 +1999,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F40" s="6">
         <v>30</v>
@@ -2037,19 +2031,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F41" s="6">
         <v>30</v>
@@ -2069,19 +2063,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="6">
         <v>30</v>
@@ -2101,19 +2095,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="6">
         <v>30</v>
@@ -2133,19 +2127,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="6">
         <v>38</v>
@@ -2165,19 +2159,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="6">
         <v>38</v>
@@ -2203,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="A3:K45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,15 +2211,15 @@
     <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
     <col min="5" max="6" width="10.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -2235,13 +2229,13 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>23</v>
@@ -2261,30 +2255,27 @@
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -2306,15 +2297,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -2336,15 +2327,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -2366,15 +2357,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -2396,15 +2387,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2426,15 +2417,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -2456,15 +2447,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -2486,15 +2477,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -2516,15 +2507,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -2546,15 +2537,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2576,15 +2567,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -2606,15 +2597,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2636,15 +2627,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -2668,13 +2659,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -2698,13 +2689,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -2728,13 +2719,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -2758,13 +2749,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -2788,13 +2779,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -2818,13 +2809,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -2848,13 +2839,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -2878,13 +2869,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -2908,13 +2899,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -2938,13 +2929,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -2968,13 +2959,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -2998,19 +2989,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="6">
         <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
@@ -3030,19 +3021,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="6">
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="6">
         <v>50</v>
@@ -3062,19 +3053,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="6">
         <v>58</v>
@@ -3094,19 +3085,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="6">
         <v>58</v>
@@ -3126,19 +3117,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="6">
         <v>47</v>
@@ -3158,19 +3149,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6">
         <v>47</v>
@@ -3190,19 +3181,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F34" s="6">
         <v>40</v>
@@ -3222,19 +3213,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="F35" s="6">
         <v>40</v>
@@ -3254,19 +3245,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" s="6">
         <v>42</v>
@@ -3286,19 +3277,19 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="6">
         <v>42</v>
@@ -3318,19 +3309,19 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="6">
         <v>40</v>
@@ -3350,19 +3341,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="6">
         <v>40</v>
@@ -3382,19 +3373,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F40" s="6">
         <v>30</v>
@@ -3414,19 +3405,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="F41" s="6">
         <v>30</v>
@@ -3446,19 +3437,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="6">
         <v>30</v>
@@ -3478,19 +3469,19 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="6">
         <v>30</v>
@@ -3510,19 +3501,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="6">
         <v>38</v>
@@ -3542,19 +3533,19 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="6">
         <v>38</v>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenn\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E46F55D-02CC-49A8-AE5D-9052A88C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75245F86-AE4A-49D7-B710-6CB39BA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4155" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>SubjectID</t>
   </si>
   <si>
-    <t>Dose with unit</t>
-  </si>
-  <si>
     <t>Wild type</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>G3</t>
+  </si>
+  <si>
+    <t>Dose</t>
   </si>
 </sst>
 </file>
@@ -734,13 +734,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.15234375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -756,13 +756,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -818,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -836,23 +836,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.3828125" customWidth="1"/>
+    <col min="2" max="2" width="23.53515625" style="6" customWidth="1"/>
+    <col min="3" max="10" width="9.15234375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -872,36 +872,36 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -923,15 +923,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -953,15 +953,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -983,15 +983,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -1013,15 +1013,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1043,15 +1043,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -1073,15 +1073,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1103,15 +1103,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -1133,15 +1133,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1163,15 +1163,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -1193,15 +1193,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1223,15 +1223,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -1253,15 +1253,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1283,15 +1283,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -1313,15 +1313,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1343,15 +1343,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -1373,15 +1373,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1403,15 +1403,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -1433,15 +1433,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1463,15 +1463,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -1493,15 +1493,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1523,15 +1523,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -1553,15 +1553,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1583,15 +1583,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -1613,21 +1613,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
@@ -1645,21 +1645,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F29" s="6">
         <v>50</v>
@@ -1677,21 +1677,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="6">
         <v>58</v>
@@ -1709,21 +1709,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="6">
         <v>58</v>
@@ -1741,21 +1741,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="6">
         <v>47</v>
@@ -1773,21 +1773,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="6">
         <v>47</v>
@@ -1805,21 +1805,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6">
         <v>40</v>
@@ -1837,21 +1837,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6">
         <v>40</v>
@@ -1869,21 +1869,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="6">
         <v>42</v>
@@ -1901,21 +1901,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6">
         <v>42</v>
@@ -1933,21 +1933,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="6">
         <v>40</v>
@@ -1965,21 +1965,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="6">
         <v>40</v>
@@ -1997,21 +1997,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F40" s="6">
         <v>30</v>
@@ -2029,21 +2029,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F41" s="6">
         <v>30</v>
@@ -2061,21 +2061,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="6">
         <v>30</v>
@@ -2093,21 +2093,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="6">
         <v>30</v>
@@ -2125,21 +2125,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="6">
         <v>38</v>
@@ -2157,21 +2157,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="6">
         <v>38</v>
@@ -2199,27 +2199,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.84375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.69140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.3828125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.15234375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="9.15234375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -2229,13 +2229,13 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="14"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2246,36 +2246,36 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -2297,15 +2297,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -2327,15 +2327,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -2357,15 +2357,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -2387,15 +2387,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2417,15 +2417,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
@@ -2447,15 +2447,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -2477,15 +2477,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -2507,15 +2507,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -2537,15 +2537,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2567,15 +2567,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -2597,15 +2597,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2627,15 +2627,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -2657,15 +2657,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -2687,15 +2687,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -2717,15 +2717,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -2747,15 +2747,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -2777,15 +2777,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -2807,15 +2807,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -2837,15 +2837,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -2867,15 +2867,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -2897,15 +2897,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -2927,15 +2927,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -2957,15 +2957,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -2987,21 +2987,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F28" s="6">
         <v>50</v>
@@ -3019,21 +3019,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="F29" s="6">
         <v>50</v>
@@ -3051,21 +3051,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="6">
         <v>58</v>
@@ -3083,21 +3083,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="6">
         <v>58</v>
@@ -3115,21 +3115,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="6">
         <v>47</v>
@@ -3147,21 +3147,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="6">
         <v>47</v>
@@ -3179,21 +3179,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6">
         <v>40</v>
@@ -3211,21 +3211,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="6">
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="6">
         <v>40</v>
@@ -3243,21 +3243,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="6">
         <v>42</v>
@@ -3275,21 +3275,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="6">
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6">
         <v>42</v>
@@ -3307,21 +3307,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="6">
         <v>40</v>
@@ -3339,21 +3339,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="6">
         <v>40</v>
@@ -3371,21 +3371,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F40" s="6">
         <v>30</v>
@@ -3403,21 +3403,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="F41" s="6">
         <v>30</v>
@@ -3435,21 +3435,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="6">
         <v>30</v>
@@ -3467,21 +3467,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="6">
         <v>2</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="6">
         <v>30</v>
@@ -3499,21 +3499,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" s="6">
         <v>38</v>
@@ -3531,21 +3531,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" s="6">
         <v>38</v>
@@ -3563,7 +3563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
     </row>
   </sheetData>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenn\Desktop\bmrn-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75245F86-AE4A-49D7-B710-6CB39BA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FADFCB-6CFC-4335-A533-68308065B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="3180" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -734,13 +734,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.84375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.15234375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -756,13 +756,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -818,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -836,18 +836,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3828125" customWidth="1"/>
-    <col min="2" max="2" width="23.53515625" style="6" customWidth="1"/>
-    <col min="3" max="10" width="9.15234375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -893,7 +893,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -923,7 +923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -953,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -983,7 +983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -2203,18 +2203,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.84375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.15234375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.3828125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.15234375" style="6" customWidth="1"/>
-    <col min="8" max="10" width="9.15234375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2229,13 +2229,13 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
     </row>
   </sheetData>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -5,20 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher.Wilson\Documents\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FADFCB-6CFC-4335-A533-68308065B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{753D2A29-C019-4F22-8E42-AA03C04460B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="3180" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
     <sheet name="Data Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Example" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="74">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -207,13 +218,55 @@
   </si>
   <si>
     <t>Dose</t>
+  </si>
+  <si>
+    <t>Wild Type</t>
+  </si>
+  <si>
+    <t>Diseased</t>
+  </si>
+  <si>
+    <t>Negative Conrol</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
+    <t>week 5</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>week 15</t>
+  </si>
+  <si>
+    <t>100 vg/mg</t>
+  </si>
+  <si>
+    <t>100 mg/vg</t>
+  </si>
+  <si>
+    <t>200 mg/vg</t>
+  </si>
+  <si>
+    <t>300 mg/vg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,6 +318,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -734,13 +793,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -756,13 +815,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,7 +845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -802,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -810,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -818,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -834,20 +893,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="6" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -861,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -881,1317 +940,2431 @@
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>0.941074597238576</v>
+      </c>
+      <c r="G4">
+        <v>0.74752428147677397</v>
+      </c>
+      <c r="H4">
+        <v>-1.2277468872409001</v>
+      </c>
+      <c r="I4">
+        <v>-0.13400771672056899</v>
+      </c>
+      <c r="J4">
+        <v>0.99776024436177901</v>
+      </c>
+      <c r="K4">
+        <v>2.1177573938790499</v>
+      </c>
+      <c r="L4">
+        <v>2.3186488576068398</v>
+      </c>
+      <c r="M4">
+        <v>3.43253215339353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>0.941074597238576</v>
+      </c>
+      <c r="G5">
+        <v>0.68265925475142697</v>
+      </c>
+      <c r="H5">
+        <v>1.45401165125736</v>
+      </c>
+      <c r="I5">
+        <v>1.7516687525772601</v>
+      </c>
+      <c r="J5">
+        <v>3.0020815617835002</v>
+      </c>
+      <c r="K5">
+        <v>3.6387350845876498</v>
+      </c>
+      <c r="L5">
+        <v>3.4347028427159199</v>
+      </c>
+      <c r="M5">
+        <v>3.0184423143574302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>0.69178120368932094</v>
+      </c>
+      <c r="G6">
+        <v>-0.89825618455703904</v>
+      </c>
+      <c r="H6">
+        <v>-0.310221371844697</v>
+      </c>
+      <c r="I6">
+        <v>1.19031601514398</v>
+      </c>
+      <c r="J6">
+        <v>2.1888057048190701</v>
+      </c>
+      <c r="K6">
+        <v>2.7089470500146402</v>
+      </c>
+      <c r="L6">
+        <v>4.5230786159599603</v>
+      </c>
+      <c r="M6">
+        <v>4.8149585611572299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>0.69178120368932094</v>
+      </c>
+      <c r="G7">
+        <v>1.2521198366791699</v>
+      </c>
+      <c r="H7">
+        <v>0.60010536525173397</v>
+      </c>
+      <c r="I7">
+        <v>0.71326956089430704</v>
+      </c>
+      <c r="J7">
+        <v>2.3098880689942298</v>
+      </c>
+      <c r="K7">
+        <v>2.9104946303924399</v>
+      </c>
+      <c r="L7">
+        <v>2.8915269453153498</v>
+      </c>
+      <c r="M7">
+        <v>2.6520158468147401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>1.88351526788246</v>
+      </c>
+      <c r="G8">
+        <v>1.46830437252218</v>
+      </c>
+      <c r="H8">
+        <v>1.33293451042791</v>
+      </c>
+      <c r="I8">
+        <v>0.84673102110223697</v>
+      </c>
+      <c r="J8">
+        <v>0.244982044576491</v>
+      </c>
+      <c r="K8">
+        <v>0.107633894363467</v>
+      </c>
+      <c r="L8">
+        <v>1.04553919334393</v>
+      </c>
+      <c r="M8">
+        <v>1.5259770345946699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9">
+        <v>1.88351526788246</v>
+      </c>
+      <c r="G9">
+        <v>2.2599408121319202</v>
+      </c>
+      <c r="H9">
+        <v>3.0856954252755</v>
+      </c>
+      <c r="I9">
+        <v>1.88591729413108</v>
+      </c>
+      <c r="J9">
+        <v>3.2856080456808798</v>
+      </c>
+      <c r="K9">
+        <v>3.7562826641604201</v>
+      </c>
+      <c r="L9">
+        <v>4.3412138759270897</v>
+      </c>
+      <c r="M9">
+        <v>4.45300214355722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10">
+        <v>-0.39390612148918602</v>
+      </c>
+      <c r="G10">
+        <v>0.65237674930241196</v>
+      </c>
+      <c r="H10">
+        <v>1.4188137489713299</v>
+      </c>
+      <c r="I10">
+        <v>2.11294445769281</v>
+      </c>
+      <c r="J10">
+        <v>2.8085390661006202</v>
+      </c>
+      <c r="K10">
+        <v>2.6932798888726799</v>
+      </c>
+      <c r="L10">
+        <v>2.8007790003790598</v>
+      </c>
+      <c r="M10">
+        <v>1.80582866758543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>-0.39390612148918602</v>
+      </c>
+      <c r="G11">
+        <v>1.32490011146007</v>
+      </c>
+      <c r="H11">
+        <v>2.1363583630720702</v>
+      </c>
+      <c r="I11">
+        <v>3.6737466308398199</v>
+      </c>
+      <c r="J11">
+        <v>4.7572182506408298</v>
+      </c>
+      <c r="K11">
+        <v>4.3910271658236804</v>
+      </c>
+      <c r="L11">
+        <v>4.7426148254110903</v>
+      </c>
+      <c r="M11">
+        <v>5.1027477154200698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>7.53786393623887E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.77908433639534602</v>
+      </c>
+      <c r="H12">
+        <v>0.80025976929756304</v>
+      </c>
+      <c r="I12">
+        <v>2.5288146414740198</v>
+      </c>
+      <c r="J12">
+        <v>3.6058708607311498</v>
+      </c>
+      <c r="K12">
+        <v>3.6065813577390502</v>
+      </c>
+      <c r="L12">
+        <v>4.8732344977754201</v>
+      </c>
+      <c r="M12">
+        <v>3.77085435949768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>7.53786393623887E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.9604505690398499</v>
+      </c>
+      <c r="H13">
+        <v>2.4274905646352001</v>
+      </c>
+      <c r="I13">
+        <v>2.25117914642246</v>
+      </c>
+      <c r="J13">
+        <v>3.3940280949263602</v>
+      </c>
+      <c r="K13">
+        <v>1.90673215741942</v>
+      </c>
+      <c r="L13">
+        <v>3.0583387548581902</v>
+      </c>
+      <c r="M13">
+        <v>4.2211279298530604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>0.87663252186751905</v>
+      </c>
+      <c r="G14">
+        <v>0.88190413572028004</v>
+      </c>
+      <c r="H14">
+        <v>2.43412659780466</v>
+      </c>
+      <c r="I14">
+        <v>2.7586080492439198</v>
+      </c>
+      <c r="J14">
+        <v>2.0190781155281701</v>
+      </c>
+      <c r="K14">
+        <v>3.5071193799822198</v>
+      </c>
+      <c r="L14">
+        <v>2.7064644429120799</v>
+      </c>
+      <c r="M14">
+        <v>2.3826694512861502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15">
+        <v>0.87663252186751905</v>
+      </c>
+      <c r="G15">
+        <v>0.52958977979303901</v>
+      </c>
+      <c r="H15">
+        <v>0.62940819321429198</v>
+      </c>
+      <c r="I15">
+        <v>0.87315190364711404</v>
+      </c>
+      <c r="J15">
+        <v>0.99718150889176205</v>
+      </c>
+      <c r="K15">
+        <v>2.5868725156988202</v>
+      </c>
+      <c r="L15">
+        <v>3.4401540076110599</v>
+      </c>
+      <c r="M15">
+        <v>2.8488228773036499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <v>1.1232273718449</v>
+      </c>
+      <c r="G16">
+        <v>2.25690275827488</v>
+      </c>
+      <c r="H16">
+        <v>2.0682840895427699</v>
+      </c>
+      <c r="I16">
+        <v>1.5208926189393199</v>
+      </c>
+      <c r="J16">
+        <v>2.1952882545779899</v>
+      </c>
+      <c r="K16">
+        <v>2.1852913434866501</v>
+      </c>
+      <c r="L16">
+        <v>3.87807463718128</v>
+      </c>
+      <c r="M16">
+        <v>4.1180718475959299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <v>1.1232273718449</v>
+      </c>
+      <c r="G17">
+        <v>-7.33853737175717E-2</v>
+      </c>
+      <c r="H17">
+        <v>4.9316509526961899E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.10459057481749</v>
+      </c>
+      <c r="J17">
+        <v>1.5027749143038001</v>
+      </c>
+      <c r="K17">
+        <v>2.7704350423420498</v>
+      </c>
+      <c r="L17">
+        <v>2.5241766746905201</v>
+      </c>
+      <c r="M17">
+        <v>2.2341203226563899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>-2.3329367469198801E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.77791270325109396</v>
+      </c>
+      <c r="H18">
+        <v>1.39538336305351</v>
+      </c>
+      <c r="I18">
+        <v>1.17275192425084</v>
+      </c>
+      <c r="J18">
+        <v>0.82758317192882502</v>
+      </c>
+      <c r="K18">
+        <v>0.45774216245135102</v>
+      </c>
+      <c r="L18">
+        <v>1.9940048690332901</v>
+      </c>
+      <c r="M18">
+        <v>2.4360746692572999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19">
+        <v>-2.3329367469198801E-2</v>
+      </c>
+      <c r="G19">
+        <v>-0.22473183254262299</v>
+      </c>
+      <c r="H19">
+        <v>-0.66501966468427398</v>
+      </c>
+      <c r="I19">
+        <v>0.4946311611468</v>
+      </c>
+      <c r="J19">
+        <v>0.82934001772094901</v>
+      </c>
+      <c r="K19">
+        <v>1.6628364943096801</v>
+      </c>
+      <c r="L19">
+        <v>0.97503099777700797</v>
+      </c>
+      <c r="M19">
+        <v>0.99711443044647396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>0.113036116867661</v>
+      </c>
+      <c r="G20">
+        <v>1.7448247164753901</v>
+      </c>
+      <c r="H20">
+        <v>1.95209926424515</v>
+      </c>
+      <c r="I20">
+        <v>2.35382005527409</v>
+      </c>
+      <c r="J20">
+        <v>3.2253253842115299</v>
+      </c>
+      <c r="K20">
+        <v>1.4003681318562</v>
+      </c>
+      <c r="L20">
+        <v>0.659683475370485</v>
+      </c>
+      <c r="M20">
+        <v>1.3267368016116801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>0.113036116867661</v>
+      </c>
+      <c r="G21">
+        <v>1.1217310095223201</v>
+      </c>
+      <c r="H21">
+        <v>0.24050684119542401</v>
+      </c>
+      <c r="I21">
+        <v>1.04213165989794</v>
+      </c>
+      <c r="J21">
+        <v>0.43444156216021101</v>
+      </c>
+      <c r="K21">
+        <v>1.2905983253971101</v>
+      </c>
+      <c r="L21">
+        <v>0.78855819130751803</v>
+      </c>
+      <c r="M21">
+        <v>0.94017525666063295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>-0.61697315546572196</v>
+      </c>
+      <c r="G22">
+        <v>0.38398722603952401</v>
+      </c>
+      <c r="H22">
+        <v>1.5752444914550201</v>
+      </c>
+      <c r="I22">
+        <v>2.0912135722879901</v>
+      </c>
+      <c r="J22">
+        <v>2.9240707474796102</v>
+      </c>
+      <c r="K22">
+        <v>1.92117126523241</v>
+      </c>
+      <c r="L22">
+        <v>2.3364487278686998</v>
+      </c>
+      <c r="M22">
+        <v>3.7513046151625802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23">
+        <v>-0.61697315546572196</v>
+      </c>
+      <c r="G23">
+        <v>0.52934067344227198</v>
+      </c>
+      <c r="H23">
+        <v>0.39056196734523402</v>
+      </c>
+      <c r="I23">
+        <v>-0.20834959092271699</v>
+      </c>
+      <c r="J23">
+        <v>1.28361323359983</v>
+      </c>
+      <c r="K23">
+        <v>2.14404195358357</v>
+      </c>
+      <c r="L23">
+        <v>1.9151951535821199</v>
+      </c>
+      <c r="M23">
+        <v>2.2751783300610899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24">
+        <v>-1.21479800370346</v>
+      </c>
+      <c r="G24">
+        <v>-0.109857581735544</v>
+      </c>
+      <c r="H24">
+        <v>0.64492897661600102</v>
+      </c>
+      <c r="I24">
+        <v>1.1866684723216401</v>
+      </c>
+      <c r="J24">
+        <v>0.103998727874921</v>
+      </c>
+      <c r="K24">
+        <v>1.0473754253004901</v>
+      </c>
+      <c r="L24">
+        <v>1.3454512772453799</v>
+      </c>
+      <c r="M24">
+        <v>0.45342033227610901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25">
+        <v>-1.21479800370346</v>
+      </c>
+      <c r="G25">
+        <v>1.56537507203267</v>
+      </c>
+      <c r="H25">
+        <v>2.09398229397243</v>
+      </c>
+      <c r="I25">
+        <v>-2.2931526170207699E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.55506853252667399</v>
+      </c>
+      <c r="K25">
+        <v>0.25856134051239399</v>
+      </c>
+      <c r="L25">
+        <v>6.0277974656065297E-2</v>
+      </c>
+      <c r="M25">
+        <v>1.1869910063837901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26">
+        <v>-0.36746395712998903</v>
+      </c>
+      <c r="G26">
+        <v>3.4107029278120399E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.51500527872083202</v>
+      </c>
+      <c r="I26">
+        <v>-0.18658879191077099</v>
+      </c>
+      <c r="J26">
+        <v>-0.52089479546042605</v>
+      </c>
+      <c r="K26">
+        <v>1.5708522795702999</v>
+      </c>
+      <c r="L26">
+        <v>2.0401058094820899</v>
+      </c>
+      <c r="M26">
+        <v>2.8807753991018101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27">
+        <v>-0.36746395712998903</v>
+      </c>
+      <c r="G27">
+        <v>-7.2957182725890996E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.41183067345484398</v>
+      </c>
+      <c r="I27">
+        <v>-0.113319135139414</v>
+      </c>
+      <c r="J27">
+        <v>0.75172839752171305</v>
+      </c>
+      <c r="K27">
+        <v>1.7699504002264399</v>
+      </c>
+      <c r="L27">
+        <v>2.2780667275256499</v>
+      </c>
+      <c r="M27">
+        <v>2.3853937329262598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>1.4413639146153201</v>
+      </c>
+      <c r="G28">
+        <v>0.29510045807846003</v>
+      </c>
+      <c r="H28">
+        <v>0.72574471937336005</v>
+      </c>
+      <c r="I28">
+        <v>0.40652153180593298</v>
+      </c>
+      <c r="J28">
+        <v>0.66409559080936098</v>
+      </c>
+      <c r="K28">
+        <v>0.41615792794099798</v>
+      </c>
+      <c r="L28">
+        <v>-0.32323438331048798</v>
+      </c>
+      <c r="M28">
+        <v>0.76408650923015697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29">
+        <v>1.4413639146153201</v>
+      </c>
+      <c r="G29">
+        <v>-1.08880553259066</v>
+      </c>
+      <c r="H29">
+        <v>0.112615530332038</v>
+      </c>
+      <c r="I29">
+        <v>0.33236603508005402</v>
+      </c>
+      <c r="J29">
+        <v>0.56648177726036097</v>
+      </c>
+      <c r="K29">
+        <v>1.2241320621140701</v>
+      </c>
+      <c r="L29">
+        <v>0.70442464635772195</v>
+      </c>
+      <c r="M29">
+        <v>0.460664510491339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30">
+        <v>-0.14882776237928</v>
+      </c>
+      <c r="G30">
+        <v>-1.37494658466547</v>
+      </c>
+      <c r="H30">
+        <v>-0.23564874009346801</v>
+      </c>
+      <c r="I30">
+        <v>0.65328909393173396</v>
+      </c>
+      <c r="J30">
+        <v>1.5006146768098501</v>
+      </c>
+      <c r="K30">
+        <v>0.85738329702213401</v>
+      </c>
+      <c r="L30">
+        <v>1.54649981857932</v>
+      </c>
+      <c r="M30">
+        <v>1.5854333274249699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31">
+        <v>-0.14882776237928</v>
+      </c>
+      <c r="G31">
+        <v>-0.13576830973589801</v>
+      </c>
+      <c r="H31">
+        <v>-0.13261762776925801</v>
+      </c>
+      <c r="I31">
+        <v>0.40623596831949998</v>
+      </c>
+      <c r="J31">
+        <v>0.55902337886891096</v>
+      </c>
+      <c r="K31">
+        <v>1.31341498345189</v>
+      </c>
+      <c r="L31">
+        <v>0.82675029775099795</v>
+      </c>
+      <c r="M31">
+        <v>-0.35526439379382102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32">
+        <v>0.65506758960002298</v>
+      </c>
+      <c r="G32">
+        <v>0.178671643290677</v>
+      </c>
+      <c r="H32">
+        <v>1.2335727214802199</v>
+      </c>
+      <c r="I32">
+        <v>2.01009557572013</v>
+      </c>
+      <c r="J32">
+        <v>1.2886229605131201</v>
+      </c>
+      <c r="K32">
+        <v>1.97006913879308</v>
+      </c>
+      <c r="L32">
+        <v>1.1266583055511601</v>
+      </c>
+      <c r="M32">
+        <v>0.855619832489799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>0.65506758960002298</v>
+      </c>
+      <c r="G33">
+        <v>-0.41925119721361098</v>
+      </c>
+      <c r="H33">
+        <v>2.8187044693201501E-2</v>
+      </c>
+      <c r="I33">
+        <v>0.81316022389966403</v>
+      </c>
+      <c r="J33">
+        <v>0.84635423954456401</v>
+      </c>
+      <c r="K33">
+        <v>1.4353663651297801</v>
+      </c>
+      <c r="L33">
+        <v>0.95803635321337499</v>
+      </c>
+      <c r="M33">
+        <v>1.20718795884958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34">
+        <v>-0.31095282395058998</v>
+      </c>
+      <c r="G34">
+        <v>1.23196522126202</v>
+      </c>
+      <c r="H34">
+        <v>1.3156292995483101</v>
+      </c>
+      <c r="I34">
+        <v>2.0852837977298702</v>
+      </c>
+      <c r="J34">
+        <v>2.2649799870673699</v>
+      </c>
+      <c r="K34">
+        <v>3.13771079186222</v>
+      </c>
+      <c r="L34">
+        <v>4.7934292446054201</v>
+      </c>
+      <c r="M34">
+        <v>4.41803553160302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35">
+        <v>-0.31095282395058998</v>
+      </c>
+      <c r="G35">
+        <v>1.6523818487203901</v>
+      </c>
+      <c r="H35">
+        <v>1.7370113350666401</v>
+      </c>
+      <c r="I35">
+        <v>2.8266170733457501</v>
+      </c>
+      <c r="J35">
+        <v>3.9557368570873899</v>
+      </c>
+      <c r="K35">
+        <v>5.1112496724018399</v>
+      </c>
+      <c r="L35">
+        <v>6.0475188030654303</v>
+      </c>
+      <c r="M35">
+        <v>5.9019711311107397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36">
+        <v>0.29891293597051999</v>
+      </c>
+      <c r="G36">
+        <v>1.93291086239418</v>
+      </c>
+      <c r="H36">
+        <v>2.6373428895137301</v>
+      </c>
+      <c r="I36">
+        <v>3.0879570717903402</v>
+      </c>
+      <c r="J36">
+        <v>2.8318758249779901</v>
+      </c>
+      <c r="K36">
+        <v>4.0440949945564997</v>
+      </c>
+      <c r="L36">
+        <v>3.7638123781069899</v>
+      </c>
+      <c r="M36">
+        <v>5.2721501053481399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37">
+        <v>0.29891293597051999</v>
+      </c>
+      <c r="G37">
+        <v>2.3575303127636098</v>
+      </c>
+      <c r="H37">
+        <v>3.70673090038713</v>
+      </c>
+      <c r="I37">
+        <v>4.5992215281876998</v>
+      </c>
+      <c r="J37">
+        <v>5.3620649198655101</v>
+      </c>
+      <c r="K37">
+        <v>7.7243335954502204</v>
+      </c>
+      <c r="L37">
+        <v>7.4148154924543004</v>
+      </c>
+      <c r="M37">
+        <v>6.4712517188076397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38">
+        <v>-1.12050147779026</v>
+      </c>
+      <c r="G38">
+        <v>2.1305980644142801</v>
+      </c>
+      <c r="H38">
+        <v>2.61114114023025</v>
+      </c>
+      <c r="I38">
+        <v>2.5249109142060302</v>
+      </c>
+      <c r="J38">
+        <v>3.7521391249828802</v>
+      </c>
+      <c r="K38">
+        <v>4.0677845342788101</v>
+      </c>
+      <c r="L38">
+        <v>4.2402924342063999</v>
+      </c>
+      <c r="M38">
+        <v>4.7839858734778904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39">
+        <v>-1.12050147779026</v>
+      </c>
+      <c r="G39">
+        <v>0.71299627531064902</v>
+      </c>
+      <c r="H39">
+        <v>2.1686764515779502</v>
+      </c>
+      <c r="I39">
+        <v>3.3179488542982898</v>
+      </c>
+      <c r="J39">
+        <v>4.4919483016747002</v>
+      </c>
+      <c r="K39">
+        <v>5.3797907333728601</v>
+      </c>
+      <c r="L39">
+        <v>5.4014842211120504</v>
+      </c>
+      <c r="M39">
+        <v>6.2669370673863902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40">
+        <v>0.40455689976052001</v>
+      </c>
+      <c r="G40">
+        <v>1.5267938675169399</v>
+      </c>
+      <c r="H40">
+        <v>2.4580868089490902</v>
+      </c>
+      <c r="I40">
+        <v>3.5034294246604301</v>
+      </c>
+      <c r="J40">
+        <v>3.7047400541598501</v>
+      </c>
+      <c r="K40">
+        <v>3.5608127496839299</v>
+      </c>
+      <c r="L40">
+        <v>4.4270756708089198</v>
+      </c>
+      <c r="M40">
+        <v>4.5679683537751101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41">
+        <v>0.40455689976052001</v>
+      </c>
+      <c r="G41">
+        <v>3.9705931310821301</v>
+      </c>
+      <c r="H41">
+        <v>3.9746488831575202</v>
+      </c>
+      <c r="I41">
+        <v>4.8248711798554602</v>
+      </c>
+      <c r="J41">
+        <v>5.5799769960300498</v>
+      </c>
+      <c r="K41">
+        <v>5.6851749532929796</v>
+      </c>
+      <c r="L41">
+        <v>7.5205466110920103</v>
+      </c>
+      <c r="M41">
+        <v>7.6611336627340796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42">
+        <v>-1.02109382908838</v>
+      </c>
+      <c r="G42">
+        <v>2.72523974903025</v>
+      </c>
+      <c r="H42">
+        <v>3.57034518229037</v>
+      </c>
+      <c r="I42">
+        <v>4.6915112961561301</v>
+      </c>
+      <c r="J42">
+        <v>5.5284542221812503</v>
+      </c>
+      <c r="K42">
+        <v>6.2987354077136901</v>
+      </c>
+      <c r="L42">
+        <v>5.9869499999086697</v>
+      </c>
+      <c r="M42">
+        <v>6.7753245799830797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43">
+        <v>-1.02109382908838</v>
+      </c>
+      <c r="G43">
+        <v>0.95134865760041398</v>
+      </c>
+      <c r="H43">
+        <v>2.9508843327971901</v>
+      </c>
+      <c r="I43">
+        <v>3.7805214455017899</v>
+      </c>
+      <c r="J43">
+        <v>4.4853268673669602</v>
+      </c>
+      <c r="K43">
+        <v>4.7920033444885304</v>
+      </c>
+      <c r="L43">
+        <v>6.1413347141880701</v>
+      </c>
+      <c r="M43">
+        <v>6.0668199864536101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44">
+        <v>0.36588553702114501</v>
+      </c>
+      <c r="G44">
+        <v>0.32108895027983803</v>
+      </c>
+      <c r="H44">
+        <v>0.37349116134076898</v>
+      </c>
+      <c r="I44">
+        <v>1.9528591596257201</v>
+      </c>
+      <c r="J44">
+        <v>3.16455544072199</v>
+      </c>
+      <c r="K44">
+        <v>4.3815774058414201</v>
+      </c>
+      <c r="L44">
+        <v>4.4685196602003803</v>
+      </c>
+      <c r="M44">
+        <v>4.7904419404413403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45">
+        <v>0.36588553702114501</v>
+      </c>
+      <c r="G45">
+        <v>0.22681579411581701</v>
+      </c>
+      <c r="H45">
+        <v>1.17099446665787</v>
+      </c>
+      <c r="I45">
+        <v>0.75148206501873505</v>
+      </c>
+      <c r="J45">
+        <v>2.1242429011428001</v>
+      </c>
+      <c r="K45">
+        <v>2.6326726447759299</v>
+      </c>
+      <c r="L45">
+        <v>2.8663888777772701</v>
+      </c>
+      <c r="M45">
+        <v>3.90456834936926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46">
+        <v>0.76795766603180404</v>
+      </c>
+      <c r="G46">
+        <v>-0.152107226962818</v>
+      </c>
+      <c r="H46">
+        <v>1.02976087870319</v>
+      </c>
+      <c r="I46">
+        <v>1.8675169944321299</v>
+      </c>
+      <c r="J46">
+        <v>2.3012668675733399</v>
+      </c>
+      <c r="K46">
+        <v>3.6353163942640898</v>
+      </c>
+      <c r="L46">
+        <v>4.9797029693891304</v>
+      </c>
+      <c r="M46">
+        <v>4.5388158518432702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47">
+        <v>0.76795766603180404</v>
+      </c>
+      <c r="G47">
+        <v>3.4864175361103098</v>
+      </c>
+      <c r="H47">
+        <v>4.0604049260528399</v>
+      </c>
+      <c r="I47">
+        <v>3.7633174000658398</v>
+      </c>
+      <c r="J47">
+        <v>4.5575933442213197</v>
+      </c>
+      <c r="K47">
+        <v>4.27054174822982</v>
+      </c>
+      <c r="L47">
+        <v>4.8346652669175496</v>
+      </c>
+      <c r="M47">
+        <v>4.57489638049167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48">
+        <v>-0.55848114046272301</v>
+      </c>
+      <c r="G48">
+        <v>0.22614850090719199</v>
+      </c>
+      <c r="H48">
+        <v>1.2768610392048001</v>
+      </c>
+      <c r="I48">
+        <v>2.1459099787666802</v>
+      </c>
+      <c r="J48">
+        <v>3.11846406585415</v>
+      </c>
+      <c r="K48">
+        <v>3.69487815497234</v>
+      </c>
+      <c r="L48">
+        <v>3.99522762294853</v>
+      </c>
+      <c r="M48">
+        <v>4.5112837821820904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49">
+        <v>-0.55848114046272301</v>
+      </c>
+      <c r="G49">
+        <v>1.1937735759840999</v>
+      </c>
+      <c r="H49">
+        <v>2.1069683380175199</v>
+      </c>
+      <c r="I49">
+        <v>2.5019463762190401</v>
+      </c>
+      <c r="J49">
+        <v>3.1787482810909502</v>
+      </c>
+      <c r="K49">
+        <v>3.03455958492524</v>
+      </c>
+      <c r="L49">
+        <v>3.3948606126824399</v>
+      </c>
+      <c r="M49">
+        <v>3.0635353258409102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50">
+        <v>0.47255251894759398</v>
+      </c>
+      <c r="G50">
+        <v>1.4747841450404799</v>
+      </c>
+      <c r="H50">
+        <v>0.95780281774688902</v>
+      </c>
+      <c r="I50">
+        <v>2.1865285561444598</v>
+      </c>
+      <c r="J50">
+        <v>2.7451512025579698</v>
+      </c>
+      <c r="K50">
+        <v>2.7981433843358499</v>
+      </c>
+      <c r="L50">
+        <v>3.56468841368791</v>
+      </c>
+      <c r="M50">
+        <v>4.1754265829113804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51">
+        <v>0.47255251894759398</v>
+      </c>
+      <c r="G51">
+        <v>1.46842514976197</v>
+      </c>
+      <c r="H51">
+        <v>2.07897691548383</v>
+      </c>
+      <c r="I51">
+        <v>3.07887443592975</v>
+      </c>
+      <c r="J51">
+        <v>4.4193173472921297</v>
+      </c>
+      <c r="K51">
+        <v>4.9586003118287696</v>
+      </c>
+      <c r="L51">
+        <v>6.0890580032686197</v>
+      </c>
+      <c r="M51">
+        <v>6.6082736656461503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52">
+        <v>-2.4950832984247602</v>
+      </c>
+      <c r="G52">
+        <v>2.8400896744680399</v>
+      </c>
+      <c r="H52">
+        <v>2.4432167777933298</v>
+      </c>
+      <c r="I52">
+        <v>2.6462139837828902</v>
+      </c>
+      <c r="J52">
+        <v>3.49313803794821</v>
+      </c>
+      <c r="K52">
+        <v>4.5220376415781702</v>
+      </c>
+      <c r="L52">
+        <v>5.72055422851692</v>
+      </c>
+      <c r="M52">
+        <v>5.9306926066945804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53">
+        <v>-2.4950832984247602</v>
+      </c>
+      <c r="G53">
+        <v>0.31414482947460298</v>
+      </c>
+      <c r="H53">
+        <v>1.70469283721707</v>
+      </c>
+      <c r="I53">
+        <v>2.1482730565342401</v>
+      </c>
+      <c r="J53">
+        <v>3.4349783887682199</v>
+      </c>
+      <c r="K53">
+        <v>3.90029952033847</v>
+      </c>
+      <c r="L53">
+        <v>3.7444061604071002</v>
+      </c>
+      <c r="M53">
+        <v>5.0390455708753796</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54">
+        <v>1.5419594043740501</v>
+      </c>
+      <c r="G54">
+        <v>7.1876326616502201E-3</v>
+      </c>
+      <c r="H54">
+        <v>-1.0186698200375</v>
+      </c>
+      <c r="I54">
+        <v>-0.73997947612994797</v>
+      </c>
+      <c r="J54">
+        <v>-1.28449117421759</v>
+      </c>
+      <c r="K54">
+        <v>-0.60465903998941595</v>
+      </c>
+      <c r="L54">
+        <v>-0.96714809830580595</v>
+      </c>
+      <c r="M54">
+        <v>-0.26538304977348298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>26</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55">
+        <v>1.5419594043740501</v>
+      </c>
+      <c r="G55">
+        <v>0.121242346349673</v>
+      </c>
+      <c r="H55">
+        <v>0.55392480053579096</v>
+      </c>
+      <c r="I55">
+        <v>-0.12351791444513401</v>
+      </c>
+      <c r="J55">
+        <v>-0.18546339816329699</v>
+      </c>
+      <c r="K55">
+        <v>0.69577910501321205</v>
+      </c>
+      <c r="L55">
+        <v>0.31650263063843798</v>
+      </c>
+      <c r="M55">
+        <v>0.64901390491817901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56">
+        <v>2.0024287958988798</v>
+      </c>
+      <c r="G56">
+        <v>-0.41241740274490502</v>
+      </c>
+      <c r="H56">
+        <v>-1.4183741161229599</v>
+      </c>
+      <c r="I56">
+        <v>-1.7633822562219199</v>
+      </c>
+      <c r="J56">
+        <v>-0.140998843182502</v>
+      </c>
+      <c r="K56">
+        <v>-0.59901338114036895</v>
+      </c>
+      <c r="L56">
+        <v>-1.1190210978817501</v>
+      </c>
+      <c r="M56">
+        <v>-0.81729789730703795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57">
+        <v>2.0024287958988798</v>
+      </c>
+      <c r="G57">
+        <v>-0.85055059798633903</v>
+      </c>
+      <c r="H57">
+        <v>-1.2753116433182501</v>
+      </c>
+      <c r="I57">
+        <v>-0.13353176984783199</v>
+      </c>
+      <c r="J57">
+        <v>0.70540167145336496</v>
+      </c>
+      <c r="K57">
+        <v>0.966092722943243</v>
+      </c>
+      <c r="L57">
+        <v>1.6089800910341301</v>
+      </c>
+      <c r="M57">
+        <v>1.4333154532685199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>28</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58">
+        <v>0.38810422164820002</v>
+      </c>
+      <c r="G58">
+        <v>1.01262994266926</v>
+      </c>
+      <c r="H58">
+        <v>0.93575277382287203</v>
+      </c>
+      <c r="I58">
+        <v>0.63584247711535002</v>
+      </c>
+      <c r="J58">
+        <v>0.43871498539241399</v>
+      </c>
+      <c r="K58">
+        <v>0.90360454220546704</v>
+      </c>
+      <c r="L58">
+        <v>0.72750036954014197</v>
+      </c>
+      <c r="M58">
+        <v>0.51831280576423699</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59">
+        <v>0.38810422164820002</v>
+      </c>
+      <c r="G59">
+        <v>0.13742776725360401</v>
+      </c>
+      <c r="H59">
+        <v>0.65187721262186105</v>
+      </c>
+      <c r="I59">
+        <v>0.12683635501723101</v>
+      </c>
+      <c r="J59">
+        <v>0.42387555656895998</v>
+      </c>
+      <c r="K59">
+        <v>1.2032011189290199</v>
+      </c>
+      <c r="L59">
+        <v>1.22255601218712</v>
+      </c>
+      <c r="M59">
+        <v>0.92580634524762695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60">
+        <v>-0.690821907340049</v>
+      </c>
+      <c r="G60">
+        <v>0.38036245440129801</v>
+      </c>
+      <c r="H60">
+        <v>0.453825783583654</v>
+      </c>
+      <c r="I60">
+        <v>4.66810535153881E-2</v>
+      </c>
+      <c r="J60">
+        <v>-1.1488235460857801</v>
+      </c>
+      <c r="K60">
+        <v>-1.5678908871531301</v>
+      </c>
+      <c r="L60">
+        <v>-0.83931522202722397</v>
+      </c>
+      <c r="M60">
+        <v>-1.1653680779945199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61">
+        <v>-0.690821907340049</v>
+      </c>
+      <c r="G61">
+        <v>-0.61825546105115903</v>
+      </c>
+      <c r="H61">
+        <v>-1.05902293754972</v>
+      </c>
+      <c r="I61">
+        <v>-2.17593348885379</v>
+      </c>
+      <c r="J61">
+        <v>-0.82553782425888</v>
+      </c>
+      <c r="K61">
+        <v>-0.95276589453168703</v>
+      </c>
+      <c r="L61">
+        <v>-1.86951635550338</v>
+      </c>
+      <c r="M61">
+        <v>-1.5640628300572601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62">
         <v>30</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62">
+        <v>-1.5672598117088401</v>
+      </c>
+      <c r="G62">
+        <v>-1.45533283384312</v>
+      </c>
+      <c r="H62">
+        <v>-0.88785633409583697</v>
+      </c>
+      <c r="I62">
+        <v>-1.0285731340269599</v>
+      </c>
+      <c r="J62">
+        <v>-2.2138445776411602</v>
+      </c>
+      <c r="K62">
+        <v>-0.83970087844663499</v>
+      </c>
+      <c r="L62">
+        <v>-1.2122648986720801</v>
+      </c>
+      <c r="M62">
+        <v>-1.26253680496401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6">
-        <v>21</v>
-      </c>
-      <c r="H8" s="6">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6">
-        <v>21</v>
-      </c>
-      <c r="H9" s="6">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6">
-        <v>52</v>
-      </c>
-      <c r="I10" s="6">
-        <v>60</v>
-      </c>
-      <c r="J10" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6">
-        <v>60</v>
-      </c>
-      <c r="J11" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6">
-        <v>58</v>
-      </c>
-      <c r="G12" s="6">
-        <v>49</v>
-      </c>
-      <c r="H12" s="6">
-        <v>52</v>
-      </c>
-      <c r="I12" s="6">
-        <v>49</v>
-      </c>
-      <c r="J12" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6">
-        <v>58</v>
-      </c>
-      <c r="G13" s="6">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6">
-        <v>52</v>
-      </c>
-      <c r="I13" s="6">
-        <v>49</v>
-      </c>
-      <c r="J13" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6">
-        <v>52</v>
-      </c>
-      <c r="G14" s="6">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6">
-        <v>52</v>
-      </c>
-      <c r="I14" s="6">
-        <v>58</v>
-      </c>
-      <c r="J14" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6">
-        <v>56</v>
-      </c>
-      <c r="H15" s="6">
-        <v>53</v>
-      </c>
-      <c r="I15" s="6">
-        <v>58</v>
-      </c>
-      <c r="J15" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6">
+      <c r="C63">
         <v>30</v>
       </c>
-      <c r="G16" s="6">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6">
-        <v>30</v>
-      </c>
-      <c r="J16" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6">
-        <v>31</v>
-      </c>
-      <c r="H17" s="6">
-        <v>27</v>
-      </c>
-      <c r="I17" s="6">
-        <v>30</v>
-      </c>
-      <c r="J17" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6">
-        <v>32</v>
-      </c>
-      <c r="G18" s="6">
-        <v>24</v>
-      </c>
-      <c r="H18" s="6">
-        <v>25</v>
-      </c>
-      <c r="I18" s="6">
-        <v>31</v>
-      </c>
-      <c r="J18" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6">
-        <v>35</v>
-      </c>
-      <c r="H19" s="6">
-        <v>25</v>
-      </c>
-      <c r="I19" s="6">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6">
-        <v>38</v>
-      </c>
-      <c r="G20" s="6">
-        <v>36</v>
-      </c>
-      <c r="H20" s="6">
-        <v>28</v>
-      </c>
-      <c r="I20" s="6">
-        <v>34</v>
-      </c>
-      <c r="J20" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6">
-        <v>38</v>
-      </c>
-      <c r="G21" s="6">
-        <v>36</v>
-      </c>
-      <c r="H21" s="6">
-        <v>28</v>
-      </c>
-      <c r="I21" s="6">
-        <v>34</v>
-      </c>
-      <c r="J21" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6">
-        <v>49</v>
-      </c>
-      <c r="H22" s="6">
-        <v>52</v>
-      </c>
-      <c r="I22" s="6">
-        <v>60</v>
-      </c>
-      <c r="J22" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6">
-        <v>50</v>
-      </c>
-      <c r="G23" s="6">
-        <v>50</v>
-      </c>
-      <c r="H23" s="6">
-        <v>49</v>
-      </c>
-      <c r="I23" s="6">
-        <v>55</v>
-      </c>
-      <c r="J23" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6">
-        <v>58</v>
-      </c>
-      <c r="G24" s="6">
-        <v>49</v>
-      </c>
-      <c r="H24" s="6">
-        <v>52</v>
-      </c>
-      <c r="I24" s="6">
-        <v>49</v>
-      </c>
-      <c r="J24" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6">
-        <v>58</v>
-      </c>
-      <c r="G25" s="6">
-        <v>49</v>
-      </c>
-      <c r="H25" s="6">
-        <v>52</v>
-      </c>
-      <c r="I25" s="6">
-        <v>49</v>
-      </c>
-      <c r="J25" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6">
-        <v>47</v>
-      </c>
-      <c r="G26" s="6">
-        <v>56</v>
-      </c>
-      <c r="H26" s="6">
-        <v>53</v>
-      </c>
-      <c r="I26" s="6">
-        <v>58</v>
-      </c>
-      <c r="J26" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6">
-        <v>47</v>
-      </c>
-      <c r="G27" s="6">
-        <v>56</v>
-      </c>
-      <c r="H27" s="6">
-        <v>53</v>
-      </c>
-      <c r="I27" s="6">
-        <v>58</v>
-      </c>
-      <c r="J27" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="6">
-        <v>50</v>
-      </c>
-      <c r="G28" s="6">
-        <v>49</v>
-      </c>
-      <c r="H28" s="6">
-        <v>52</v>
-      </c>
-      <c r="I28" s="6">
-        <v>60</v>
-      </c>
-      <c r="J28" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="6">
-        <v>50</v>
-      </c>
-      <c r="G29" s="6">
-        <v>49</v>
-      </c>
-      <c r="H29" s="6">
-        <v>52</v>
-      </c>
-      <c r="I29" s="6">
-        <v>60</v>
-      </c>
-      <c r="J29" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="6">
-        <v>58</v>
-      </c>
-      <c r="G30" s="6">
-        <v>49</v>
-      </c>
-      <c r="H30" s="6">
-        <v>52</v>
-      </c>
-      <c r="I30" s="6">
-        <v>49</v>
-      </c>
-      <c r="J30" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="6">
-        <v>58</v>
-      </c>
-      <c r="G31" s="6">
-        <v>49</v>
-      </c>
-      <c r="H31" s="6">
-        <v>52</v>
-      </c>
-      <c r="I31" s="6">
-        <v>49</v>
-      </c>
-      <c r="J31" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="6">
-        <v>47</v>
-      </c>
-      <c r="G32" s="6">
-        <v>56</v>
-      </c>
-      <c r="H32" s="6">
-        <v>53</v>
-      </c>
-      <c r="I32" s="6">
-        <v>58</v>
-      </c>
-      <c r="J32" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="6">
-        <v>47</v>
-      </c>
-      <c r="G33" s="6">
-        <v>56</v>
-      </c>
-      <c r="H33" s="6">
-        <v>53</v>
-      </c>
-      <c r="I33" s="6">
-        <v>58</v>
-      </c>
-      <c r="J33" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="6">
-        <v>40</v>
-      </c>
-      <c r="G34" s="6">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6">
-        <v>40</v>
-      </c>
-      <c r="I34" s="6">
-        <v>43</v>
-      </c>
-      <c r="J34" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="6">
-        <v>40</v>
-      </c>
-      <c r="G35" s="6">
-        <v>43</v>
-      </c>
-      <c r="H35" s="6">
-        <v>40</v>
-      </c>
-      <c r="I35" s="6">
-        <v>43</v>
-      </c>
-      <c r="J35" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="6">
-        <v>42</v>
-      </c>
-      <c r="G36" s="6">
-        <v>43</v>
-      </c>
-      <c r="H36" s="6">
-        <v>42</v>
-      </c>
-      <c r="I36" s="6">
-        <v>43</v>
-      </c>
-      <c r="J36" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="6">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6">
-        <v>43</v>
-      </c>
-      <c r="H37" s="6">
-        <v>42</v>
-      </c>
-      <c r="I37" s="6">
-        <v>43</v>
-      </c>
-      <c r="J37" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="6">
-        <v>40</v>
-      </c>
-      <c r="G38" s="6">
-        <v>41</v>
-      </c>
-      <c r="H38" s="6">
-        <v>40</v>
-      </c>
-      <c r="I38" s="6">
-        <v>41</v>
-      </c>
-      <c r="J38" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="6">
-        <v>40</v>
-      </c>
-      <c r="G39" s="6">
-        <v>41</v>
-      </c>
-      <c r="H39" s="6">
-        <v>40</v>
-      </c>
-      <c r="I39" s="6">
-        <v>41</v>
-      </c>
-      <c r="J39" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="6">
-        <v>30</v>
-      </c>
-      <c r="G40" s="6">
-        <v>31</v>
-      </c>
-      <c r="H40" s="6">
-        <v>27</v>
-      </c>
-      <c r="I40" s="6">
-        <v>30</v>
-      </c>
-      <c r="J40" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="6">
-        <v>30</v>
-      </c>
-      <c r="G41" s="6">
-        <v>31</v>
-      </c>
-      <c r="H41" s="6">
-        <v>27</v>
-      </c>
-      <c r="I41" s="6">
-        <v>30</v>
-      </c>
-      <c r="J41" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="6">
-        <v>30</v>
-      </c>
-      <c r="G42" s="6">
-        <v>35</v>
-      </c>
-      <c r="H42" s="6">
-        <v>25</v>
-      </c>
-      <c r="I42" s="6">
-        <v>31</v>
-      </c>
-      <c r="J42" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="6">
-        <v>30</v>
-      </c>
-      <c r="G43" s="6">
-        <v>35</v>
-      </c>
-      <c r="H43" s="6">
-        <v>25</v>
-      </c>
-      <c r="I43" s="6">
-        <v>31</v>
-      </c>
-      <c r="J43" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="6">
-        <v>38</v>
-      </c>
-      <c r="G44" s="6">
-        <v>36</v>
-      </c>
-      <c r="H44" s="6">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6">
-        <v>34</v>
-      </c>
-      <c r="J44" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="6">
-        <v>38</v>
-      </c>
-      <c r="G45" s="6">
-        <v>36</v>
-      </c>
-      <c r="H45" s="6">
-        <v>28</v>
-      </c>
-      <c r="I45" s="6">
-        <v>34</v>
-      </c>
-      <c r="J45" s="6">
-        <v>30</v>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63">
+        <v>-1.5672598117088401</v>
+      </c>
+      <c r="G63">
+        <v>-1.8532456209047301</v>
+      </c>
+      <c r="H63">
+        <v>-1.3846592208375199</v>
+      </c>
+      <c r="I63">
+        <v>-1.1279658572703199</v>
+      </c>
+      <c r="J63">
+        <v>-0.891251744380961</v>
+      </c>
+      <c r="K63">
+        <v>0.49267525350941799</v>
+      </c>
+      <c r="L63">
+        <v>0.59616660501709096</v>
+      </c>
+      <c r="M63">
+        <v>0.73827106999075598</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2203,18 +3376,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="9.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2229,13 +3402,13 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="14"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -2267,7 +3440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -2297,7 +3470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2327,7 +3500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +3530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2387,7 +3560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -2417,7 +3590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +3620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2477,7 +3650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -2507,7 +3680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +3710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -2567,7 +3740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +3770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2627,7 +3800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +3830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -2687,7 +3860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -2717,7 +3890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -2747,7 +3920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -2777,7 +3950,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2807,7 +3980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -2837,7 +4010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -2867,7 +4040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +4070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -2927,7 +4100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2957,7 +4130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +4160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
@@ -3019,7 +4192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -3051,7 +4224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -3083,7 +4256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -3115,7 +4288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
@@ -3147,7 +4320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -3179,7 +4352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
@@ -3211,7 +4384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -3243,7 +4416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +4448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -3307,7 +4480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -3339,7 +4512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -3371,7 +4544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -3403,7 +4576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -3435,7 +4608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -3467,7 +4640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -3499,7 +4672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -3531,7 +4704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -3563,7 +4736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
     </row>
   </sheetData>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher.Wilson\Documents\bmrn-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{753D2A29-C019-4F22-8E42-AA03C04460B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980EAEF-810B-4E34-BF66-128771A59B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7095" yWindow="2400" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="73">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -248,9 +247,6 @@
   </si>
   <si>
     <t>week 15</t>
-  </si>
-  <si>
-    <t>100 vg/mg</t>
   </si>
   <si>
     <t>100 mg/vg</t>
@@ -793,13 +789,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -815,13 +811,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -845,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -853,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -861,7 +857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -869,7 +865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -877,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -895,18 +891,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="6" customWidth="1"/>
-    <col min="3" max="10" width="9.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -920,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -961,7 +959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>3.43253215339353</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5">
         <v>0.941074597238576</v>
@@ -1043,7 +1041,7 @@
         <v>3.0184423143574302</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>0.69178120368932094</v>
@@ -1084,7 +1082,7 @@
         <v>4.8149585611572299</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0.69178120368932094</v>
@@ -1125,7 +1123,7 @@
         <v>2.6520158468147401</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1139,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>1.88351526788246</v>
@@ -1166,7 +1164,7 @@
         <v>1.5259770345946699</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1180,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>1.88351526788246</v>
@@ -1207,7 +1205,7 @@
         <v>4.45300214355722</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>-0.39390612148918602</v>
@@ -1248,7 +1246,7 @@
         <v>1.80582866758543</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>-0.39390612148918602</v>
@@ -1289,7 +1287,7 @@
         <v>5.1027477154200698</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>7.53786393623887E-2</v>
@@ -1330,7 +1328,7 @@
         <v>3.77085435949768</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1344,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>7.53786393623887E-2</v>
@@ -1371,7 +1369,7 @@
         <v>4.2211279298530604</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14">
         <v>0.87663252186751905</v>
@@ -1412,7 +1410,7 @@
         <v>2.3826694512861502</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1426,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>0.87663252186751905</v>
@@ -1453,7 +1451,7 @@
         <v>2.8488228773036499</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>1.1232273718449</v>
@@ -1494,7 +1492,7 @@
         <v>4.1180718475959299</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>1.1232273718449</v>
@@ -1535,7 +1533,7 @@
         <v>2.2341203226563899</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1549,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>-2.3329367469198801E-2</v>
@@ -1576,7 +1574,7 @@
         <v>2.4360746692572999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>-2.3329367469198801E-2</v>
@@ -1617,7 +1615,7 @@
         <v>0.99711443044647396</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -1631,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>0.113036116867661</v>
@@ -1658,7 +1656,7 @@
         <v>1.3267368016116801</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <v>0.113036116867661</v>
@@ -1699,7 +1697,7 @@
         <v>0.94017525666063295</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1713,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>-0.61697315546572196</v>
@@ -1740,7 +1738,7 @@
         <v>3.7513046151625802</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1754,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>-0.61697315546572196</v>
@@ -1781,7 +1779,7 @@
         <v>2.2751783300610899</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>-1.21479800370346</v>
@@ -1822,7 +1820,7 @@
         <v>0.45342033227610901</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25">
         <v>-1.21479800370346</v>
@@ -1863,7 +1861,7 @@
         <v>1.1869910063837901</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26">
         <v>-0.36746395712998903</v>
@@ -1904,7 +1902,7 @@
         <v>2.8807753991018101</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>-0.36746395712998903</v>
@@ -1945,7 +1943,7 @@
         <v>2.3853937329262598</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>1.4413639146153201</v>
@@ -1986,7 +1984,7 @@
         <v>0.76408650923015697</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>1.4413639146153201</v>
@@ -2027,7 +2025,7 @@
         <v>0.460664510491339</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2041,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30">
         <v>-0.14882776237928</v>
@@ -2068,7 +2066,7 @@
         <v>1.5854333274249699</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2082,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>-0.14882776237928</v>
@@ -2109,7 +2107,7 @@
         <v>-0.35526439379382102</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32">
         <v>0.65506758960002298</v>
@@ -2150,7 +2148,7 @@
         <v>0.855619832489799</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33">
         <v>0.65506758960002298</v>
@@ -2191,7 +2189,7 @@
         <v>1.20718795884958</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2230,7 +2228,7 @@
         <v>4.41803553160302</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2269,7 +2267,7 @@
         <v>5.9019711311107397</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>5.2721501053481399</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2347,7 +2345,7 @@
         <v>6.4712517188076397</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2386,7 +2384,7 @@
         <v>4.7839858734778904</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>6.2669370673863902</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2464,7 +2462,7 @@
         <v>4.5679683537751101</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>7.6611336627340796</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2542,7 +2540,7 @@
         <v>6.7753245799830797</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>6.0668199864536101</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2618,7 @@
         <v>4.7904419404413403</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>3.90456834936926</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -2698,7 +2696,7 @@
         <v>4.5388158518432702</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>4.57489638049167</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>4.5112837821820904</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2815,7 +2813,7 @@
         <v>3.0635353258409102</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>4.1754265829113804</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>6.6082736656461503</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>5.9306926066945804</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>5.0390455708753796</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3010,7 +3008,7 @@
         <v>-0.26538304977348298</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -3049,7 +3047,7 @@
         <v>0.64901390491817901</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>-0.81729789730703795</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3127,7 +3125,7 @@
         <v>1.4333154532685199</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -3166,7 +3164,7 @@
         <v>0.51831280576423699</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -3205,7 +3203,7 @@
         <v>0.92580634524762695</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>-1.1653680779945199</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3283,7 +3281,7 @@
         <v>-1.5640628300572601</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>-1.26253680496401</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3376,18 +3374,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" style="6" customWidth="1"/>
-    <col min="8" max="10" width="9.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3402,13 +3400,13 @@
       </c>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
@@ -3680,7 +3678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
@@ -3920,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
@@ -3950,7 +3948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -4040,7 +4038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
@@ -4192,7 +4190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -4224,7 +4222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -4256,7 +4254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
@@ -4352,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
@@ -4416,7 +4414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -4480,7 +4478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -4512,7 +4510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
@@ -4608,7 +4606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
@@ -4704,7 +4702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -4736,7 +4734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
     </row>
   </sheetData>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -5,26 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Redbock\Desktop\bmrn-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenn\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E980EAEF-810B-4E34-BF66-128771A59B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1DF0F-F2E8-490E-B938-4450A12A1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7095" yWindow="2400" windowWidth="21600" windowHeight="11325" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
     <sheet name="Data Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Example" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="72">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -225,9 +223,6 @@
     <t>Diseased</t>
   </si>
   <si>
-    <t>Negative Conrol</t>
-  </si>
-  <si>
     <t>week 2</t>
   </si>
   <si>
@@ -252,10 +247,10 @@
     <t>100 mg/vg</t>
   </si>
   <si>
-    <t>200 mg/vg</t>
-  </si>
-  <si>
     <t>300 mg/vg</t>
+  </si>
+  <si>
+    <t>2000 mg/vg</t>
   </si>
 </sst>
 </file>
@@ -891,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,25 +933,25 @@
         <v>15</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -973,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>0.941074597238576</v>
@@ -1014,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>0.941074597238576</v>
@@ -1055,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>0.69178120368932094</v>
@@ -1096,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>0.69178120368932094</v>
@@ -1137,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>1.88351526788246</v>
@@ -1178,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>1.88351526788246</v>
@@ -1219,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>-0.39390612148918602</v>
@@ -1260,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>-0.39390612148918602</v>
@@ -1301,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>7.53786393623887E-2</v>
@@ -1342,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>7.53786393623887E-2</v>
@@ -1423,8 +1418,9 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>71</v>
+      <c r="E15" t="str">
+        <f>E14</f>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F15">
         <v>0.87663252186751905</v>
@@ -1464,8 +1460,9 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>71</v>
+      <c r="E16" t="str">
+        <f t="shared" ref="E16:E23" si="0">E15</f>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F16">
         <v>1.1232273718449</v>
@@ -1505,8 +1502,9 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>71</v>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F17">
         <v>1.1232273718449</v>
@@ -1546,8 +1544,9 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>71</v>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F18">
         <v>-2.3329367469198801E-2</v>
@@ -1587,8 +1586,9 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>71</v>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F19">
         <v>-2.3329367469198801E-2</v>
@@ -1628,8 +1628,9 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>71</v>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F20">
         <v>0.113036116867661</v>
@@ -1669,8 +1670,9 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>71</v>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F21">
         <v>0.113036116867661</v>
@@ -1710,8 +1712,9 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>71</v>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F22">
         <v>-0.61697315546572196</v>
@@ -1751,8 +1754,9 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>71</v>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>2000 mg/vg</v>
       </c>
       <c r="F23">
         <v>-0.61697315546572196</v>
@@ -1793,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24">
         <v>-1.21479800370346</v>
@@ -1834,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>-1.21479800370346</v>
@@ -1875,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>-0.36746395712998903</v>
@@ -1916,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <v>-0.36746395712998903</v>
@@ -1957,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <v>1.4413639146153201</v>
@@ -1998,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29">
         <v>1.4413639146153201</v>
@@ -2039,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30">
         <v>-0.14882776237928</v>
@@ -2080,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31">
         <v>-0.14882776237928</v>
@@ -2121,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F32">
         <v>0.65506758960002298</v>
@@ -2162,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33">
         <v>0.65506758960002298</v>
@@ -2194,7 +2198,7 @@
         <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>16</v>
@@ -2233,7 +2237,7 @@
         <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -2272,7 +2276,7 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>17</v>
@@ -2311,7 +2315,7 @@
         <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>17</v>
@@ -2350,7 +2354,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>18</v>
@@ -2389,7 +2393,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>18</v>
@@ -2428,7 +2432,7 @@
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>19</v>
@@ -2467,7 +2471,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>19</v>
@@ -2506,7 +2510,7 @@
         <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -2545,7 +2549,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>20</v>

--- a/test_dev.xlsx
+++ b/test_dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drenn\Desktop\bmrn-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF1DF0F-F2E8-490E-B938-4450A12A1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4A53B0-927F-4535-8724-62A7ABA810CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="43">
   <si>
     <t>In cell B1, please record the label for your endpoint or biomarker with unit</t>
   </si>
@@ -118,100 +118,13 @@
     <t>Negative Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Postive Control </t>
-  </si>
-  <si>
     <t>creatine kinase (ng/ml)</t>
   </si>
   <si>
     <t>Technical Replicate ID</t>
   </si>
   <si>
-    <t>2 weeks</t>
-  </si>
-  <si>
-    <t>4 weeks</t>
-  </si>
-  <si>
-    <t>6 weeks</t>
-  </si>
-  <si>
-    <t>8 weeks</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
     <t>BMN000</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>1 mg/kg</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>3 mg/kg</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>10 mg/kg</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
   </si>
   <si>
     <t>Dose</t>
@@ -250,14 +163,14 @@
     <t>300 mg/vg</t>
   </si>
   <si>
-    <t>2000 mg/vg</t>
+    <t>200 mg/vg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,13 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -346,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,22 +284,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B43"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M63" sqref="A1:M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -924,42 +818,42 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>68</v>
+      <c r="G3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -968,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>0.941074597238576</v>
@@ -997,10 +891,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1009,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0.941074597238576</v>
@@ -1038,10 +932,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1050,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>0.69178120368932094</v>
@@ -1079,10 +973,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1091,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>0.69178120368932094</v>
@@ -1120,10 +1014,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1132,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F8">
         <v>1.88351526788246</v>
@@ -1161,10 +1055,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1173,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>1.88351526788246</v>
@@ -1202,10 +1096,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1214,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>-0.39390612148918602</v>
@@ -1243,10 +1137,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1255,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>-0.39390612148918602</v>
@@ -1284,10 +1178,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1296,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>7.53786393623887E-2</v>
@@ -1325,10 +1219,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1337,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>7.53786393623887E-2</v>
@@ -1366,10 +1260,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1378,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>0.87663252186751905</v>
@@ -1407,10 +1301,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1420,7 +1314,7 @@
       </c>
       <c r="E15" t="str">
         <f>E14</f>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F15">
         <v>0.87663252186751905</v>
@@ -1449,10 +1343,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1462,7 +1356,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ref="E16:E23" si="0">E15</f>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F16">
         <v>1.1232273718449</v>
@@ -1491,10 +1385,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1504,7 +1398,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F17">
         <v>1.1232273718449</v>
@@ -1533,10 +1427,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1546,7 +1440,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F18">
         <v>-2.3329367469198801E-2</v>
@@ -1575,10 +1469,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1588,7 +1482,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F19">
         <v>-2.3329367469198801E-2</v>
@@ -1617,10 +1511,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1630,7 +1524,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F20">
         <v>0.113036116867661</v>
@@ -1659,10 +1553,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -1672,7 +1566,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F21">
         <v>0.113036116867661</v>
@@ -1701,10 +1595,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -1714,7 +1608,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F22">
         <v>-0.61697315546572196</v>
@@ -1743,10 +1637,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1756,7 +1650,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>2000 mg/vg</v>
+        <v>200 mg/vg</v>
       </c>
       <c r="F23">
         <v>-0.61697315546572196</v>
@@ -1785,10 +1679,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1797,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>-1.21479800370346</v>
@@ -1826,10 +1720,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -1838,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>-1.21479800370346</v>
@@ -1867,10 +1761,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1879,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <v>-0.36746395712998903</v>
@@ -1908,10 +1802,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1920,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>-0.36746395712998903</v>
@@ -1949,10 +1843,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -1961,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>1.4413639146153201</v>
@@ -1990,10 +1884,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>13</v>
@@ -2002,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>1.4413639146153201</v>
@@ -2031,10 +1925,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -2043,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>-0.14882776237928</v>
@@ -2072,10 +1966,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>14</v>
@@ -2084,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>-0.14882776237928</v>
@@ -2113,10 +2007,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -2125,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>0.65506758960002298</v>
@@ -2154,10 +2048,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -2166,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F33">
         <v>0.65506758960002298</v>
@@ -2195,7 +2089,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -2234,7 +2128,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -2273,7 +2167,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -2312,7 +2206,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2351,7 +2245,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -2390,7 +2284,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -2429,7 +2323,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -2468,7 +2362,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -2507,7 +2401,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -2546,7 +2440,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>26</v>
@@ -2585,7 +2479,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2624,7 +2518,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2663,7 +2557,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -2702,7 +2596,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -2741,7 +2635,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -2780,7 +2674,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -2819,7 +2713,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -2858,7 +2752,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -2897,7 +2791,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -2936,7 +2830,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -2975,7 +2869,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -3014,7 +2908,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -3053,7 +2947,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -3092,7 +2986,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -3131,7 +3025,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -3170,7 +3064,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -3209,7 +3103,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -3248,7 +3142,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -3287,7 +3181,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -3326,7 +3220,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -3364,7 +3258,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3372,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,1357 +3283,2607 @@
     <col min="8" max="10" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>0.941074597238576</v>
+      </c>
+      <c r="H4">
+        <v>0.74752428147677397</v>
+      </c>
+      <c r="I4">
+        <v>-1.2277468872409001</v>
+      </c>
+      <c r="J4">
+        <v>-0.13400771672056899</v>
+      </c>
+      <c r="K4">
+        <v>0.99776024436177901</v>
+      </c>
+      <c r="L4">
+        <v>2.1177573938790499</v>
+      </c>
+      <c r="M4">
+        <v>2.3186488576068398</v>
+      </c>
+      <c r="N4">
+        <v>3.43253215339353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>0.941074597238576</v>
+      </c>
+      <c r="H5">
+        <v>0.68265925475142697</v>
+      </c>
+      <c r="I5">
+        <v>1.45401165125736</v>
+      </c>
+      <c r="J5">
+        <v>1.7516687525772601</v>
+      </c>
+      <c r="K5">
+        <v>3.0020815617835002</v>
+      </c>
+      <c r="L5">
+        <v>3.6387350845876498</v>
+      </c>
+      <c r="M5">
+        <v>3.4347028427159199</v>
+      </c>
+      <c r="N5">
+        <v>3.0184423143574302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6">
-        <v>24</v>
-      </c>
-      <c r="H6" s="6">
-        <v>20</v>
-      </c>
-      <c r="I6" s="6">
-        <v>20</v>
-      </c>
-      <c r="J6" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>0.69178120368932094</v>
+      </c>
+      <c r="H6">
+        <v>-0.89825618455703904</v>
+      </c>
+      <c r="I6">
+        <v>-0.310221371844697</v>
+      </c>
+      <c r="J6">
+        <v>1.19031601514398</v>
+      </c>
+      <c r="K6">
+        <v>2.1888057048190701</v>
+      </c>
+      <c r="L6">
+        <v>2.7089470500146402</v>
+      </c>
+      <c r="M6">
+        <v>4.5230786159599603</v>
+      </c>
+      <c r="N6">
+        <v>4.8149585611572299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6">
-        <v>24</v>
-      </c>
-      <c r="H7" s="6">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>0.69178120368932094</v>
+      </c>
+      <c r="H7">
+        <v>1.2521198366791699</v>
+      </c>
+      <c r="I7">
+        <v>0.60010536525173397</v>
+      </c>
+      <c r="J7">
+        <v>0.71326956089430704</v>
+      </c>
+      <c r="K7">
+        <v>2.3098880689942298</v>
+      </c>
+      <c r="L7">
+        <v>2.9104946303924399</v>
+      </c>
+      <c r="M7">
+        <v>2.8915269453153498</v>
+      </c>
+      <c r="N7">
+        <v>2.6520158468147401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6">
-        <v>21</v>
-      </c>
-      <c r="H8" s="6">
-        <v>20</v>
-      </c>
-      <c r="I8" s="6">
-        <v>21</v>
-      </c>
-      <c r="J8" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>1.88351526788246</v>
+      </c>
+      <c r="H8">
+        <v>1.46830437252218</v>
+      </c>
+      <c r="I8">
+        <v>1.33293451042791</v>
+      </c>
+      <c r="J8">
+        <v>0.84673102110223697</v>
+      </c>
+      <c r="K8">
+        <v>0.244982044576491</v>
+      </c>
+      <c r="L8">
+        <v>0.107633894363467</v>
+      </c>
+      <c r="M8">
+        <v>1.04553919334393</v>
+      </c>
+      <c r="N8">
+        <v>1.5259770345946699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6">
-        <v>21</v>
-      </c>
-      <c r="H9" s="6">
-        <v>20</v>
-      </c>
-      <c r="I9" s="6">
-        <v>21</v>
-      </c>
-      <c r="J9" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>1.88351526788246</v>
+      </c>
+      <c r="H9">
+        <v>2.2599408121319202</v>
+      </c>
+      <c r="I9">
+        <v>3.0856954252755</v>
+      </c>
+      <c r="J9">
+        <v>1.88591729413108</v>
+      </c>
+      <c r="K9">
+        <v>3.2856080456808798</v>
+      </c>
+      <c r="L9">
+        <v>3.7562826641604201</v>
+      </c>
+      <c r="M9">
+        <v>4.3412138759270897</v>
+      </c>
+      <c r="N9">
+        <v>4.45300214355722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6">
-        <v>52</v>
-      </c>
-      <c r="I10" s="6">
-        <v>60</v>
-      </c>
-      <c r="J10" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>-0.39390612148918602</v>
+      </c>
+      <c r="H10">
+        <v>0.65237674930241196</v>
+      </c>
+      <c r="I10">
+        <v>1.4188137489713299</v>
+      </c>
+      <c r="J10">
+        <v>2.11294445769281</v>
+      </c>
+      <c r="K10">
+        <v>2.8085390661006202</v>
+      </c>
+      <c r="L10">
+        <v>2.6932798888726799</v>
+      </c>
+      <c r="M10">
+        <v>2.8007790003790598</v>
+      </c>
+      <c r="N10">
+        <v>1.80582866758543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6">
-        <v>50</v>
-      </c>
-      <c r="G11" s="6">
-        <v>49</v>
-      </c>
-      <c r="H11" s="6">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6">
-        <v>60</v>
-      </c>
-      <c r="J11" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>-0.39390612148918602</v>
+      </c>
+      <c r="H11">
+        <v>1.32490011146007</v>
+      </c>
+      <c r="I11">
+        <v>2.1363583630720702</v>
+      </c>
+      <c r="J11">
+        <v>3.6737466308398199</v>
+      </c>
+      <c r="K11">
+        <v>4.7572182506408298</v>
+      </c>
+      <c r="L11">
+        <v>4.3910271658236804</v>
+      </c>
+      <c r="M11">
+        <v>4.7426148254110903</v>
+      </c>
+      <c r="N11">
+        <v>5.1027477154200698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6">
-        <v>58</v>
-      </c>
-      <c r="G12" s="6">
-        <v>49</v>
-      </c>
-      <c r="H12" s="6">
-        <v>52</v>
-      </c>
-      <c r="I12" s="6">
-        <v>49</v>
-      </c>
-      <c r="J12" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>7.53786393623887E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.77908433639534602</v>
+      </c>
+      <c r="I12">
+        <v>0.80025976929756304</v>
+      </c>
+      <c r="J12">
+        <v>2.5288146414740198</v>
+      </c>
+      <c r="K12">
+        <v>3.6058708607311498</v>
+      </c>
+      <c r="L12">
+        <v>3.6065813577390502</v>
+      </c>
+      <c r="M12">
+        <v>4.8732344977754201</v>
+      </c>
+      <c r="N12">
+        <v>3.77085435949768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6">
-        <v>58</v>
-      </c>
-      <c r="G13" s="6">
-        <v>49</v>
-      </c>
-      <c r="H13" s="6">
-        <v>52</v>
-      </c>
-      <c r="I13" s="6">
-        <v>49</v>
-      </c>
-      <c r="J13" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <v>7.53786393623887E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.9604505690398499</v>
+      </c>
+      <c r="I13">
+        <v>2.4274905646352001</v>
+      </c>
+      <c r="J13">
+        <v>2.25117914642246</v>
+      </c>
+      <c r="K13">
+        <v>3.3940280949263602</v>
+      </c>
+      <c r="L13">
+        <v>1.90673215741942</v>
+      </c>
+      <c r="M13">
+        <v>3.0583387548581902</v>
+      </c>
+      <c r="N13">
+        <v>4.2211279298530604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6">
-        <v>52</v>
-      </c>
-      <c r="G14" s="6">
-        <v>49</v>
-      </c>
-      <c r="H14" s="6">
-        <v>52</v>
-      </c>
-      <c r="I14" s="6">
-        <v>58</v>
-      </c>
-      <c r="J14" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>0.87663252186751905</v>
+      </c>
+      <c r="H14">
+        <v>0.88190413572028004</v>
+      </c>
+      <c r="I14">
+        <v>2.43412659780466</v>
+      </c>
+      <c r="J14">
+        <v>2.7586080492439198</v>
+      </c>
+      <c r="K14">
+        <v>2.0190781155281701</v>
+      </c>
+      <c r="L14">
+        <v>3.5071193799822198</v>
+      </c>
+      <c r="M14">
+        <v>2.7064644429120799</v>
+      </c>
+      <c r="N14">
+        <v>2.3826694512861502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6">
-        <v>47</v>
-      </c>
-      <c r="G15" s="6">
-        <v>56</v>
-      </c>
-      <c r="H15" s="6">
-        <v>53</v>
-      </c>
-      <c r="I15" s="6">
-        <v>58</v>
-      </c>
-      <c r="J15" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="str">
+        <f>F14</f>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G15">
+        <v>0.87663252186751905</v>
+      </c>
+      <c r="H15">
+        <v>0.52958977979303901</v>
+      </c>
+      <c r="I15">
+        <v>0.62940819321429198</v>
+      </c>
+      <c r="J15">
+        <v>0.87315190364711404</v>
+      </c>
+      <c r="K15">
+        <v>0.99718150889176205</v>
+      </c>
+      <c r="L15">
+        <v>2.5868725156988202</v>
+      </c>
+      <c r="M15">
+        <v>3.4401540076110599</v>
+      </c>
+      <c r="N15">
+        <v>2.8488228773036499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6">
-        <v>30</v>
-      </c>
-      <c r="G16" s="6">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6">
-        <v>27</v>
-      </c>
-      <c r="I16" s="6">
-        <v>30</v>
-      </c>
-      <c r="J16" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16:F23" si="0">F15</f>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G16">
+        <v>1.1232273718449</v>
+      </c>
+      <c r="H16">
+        <v>2.25690275827488</v>
+      </c>
+      <c r="I16">
+        <v>2.0682840895427699</v>
+      </c>
+      <c r="J16">
+        <v>1.5208926189393199</v>
+      </c>
+      <c r="K16">
+        <v>2.1952882545779899</v>
+      </c>
+      <c r="L16">
+        <v>2.1852913434866501</v>
+      </c>
+      <c r="M16">
+        <v>3.87807463718128</v>
+      </c>
+      <c r="N16">
+        <v>4.1180718475959299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6">
-        <v>31</v>
-      </c>
-      <c r="H17" s="6">
-        <v>27</v>
-      </c>
-      <c r="I17" s="6">
-        <v>30</v>
-      </c>
-      <c r="J17" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G17">
+        <v>1.1232273718449</v>
+      </c>
+      <c r="H17">
+        <v>-7.33853737175717E-2</v>
+      </c>
+      <c r="I17">
+        <v>4.9316509526961899E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.10459057481749</v>
+      </c>
+      <c r="K17">
+        <v>1.5027749143038001</v>
+      </c>
+      <c r="L17">
+        <v>2.7704350423420498</v>
+      </c>
+      <c r="M17">
+        <v>2.5241766746905201</v>
+      </c>
+      <c r="N17">
+        <v>2.2341203226563899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6">
-        <v>32</v>
-      </c>
-      <c r="G18" s="6">
-        <v>24</v>
-      </c>
-      <c r="H18" s="6">
-        <v>25</v>
-      </c>
-      <c r="I18" s="6">
-        <v>31</v>
-      </c>
-      <c r="J18" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G18">
+        <v>-2.3329367469198801E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.77791270325109396</v>
+      </c>
+      <c r="I18">
+        <v>1.39538336305351</v>
+      </c>
+      <c r="J18">
+        <v>1.17275192425084</v>
+      </c>
+      <c r="K18">
+        <v>0.82758317192882502</v>
+      </c>
+      <c r="L18">
+        <v>0.45774216245135102</v>
+      </c>
+      <c r="M18">
+        <v>1.9940048690332901</v>
+      </c>
+      <c r="N18">
+        <v>2.4360746692572999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6">
-        <v>35</v>
-      </c>
-      <c r="H19" s="6">
-        <v>25</v>
-      </c>
-      <c r="I19" s="6">
-        <v>31</v>
-      </c>
-      <c r="J19" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G19">
+        <v>-2.3329367469198801E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.22473183254262299</v>
+      </c>
+      <c r="I19">
+        <v>-0.66501966468427398</v>
+      </c>
+      <c r="J19">
+        <v>0.4946311611468</v>
+      </c>
+      <c r="K19">
+        <v>0.82934001772094901</v>
+      </c>
+      <c r="L19">
+        <v>1.6628364943096801</v>
+      </c>
+      <c r="M19">
+        <v>0.97503099777700797</v>
+      </c>
+      <c r="N19">
+        <v>0.99711443044647396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6">
-        <v>38</v>
-      </c>
-      <c r="G20" s="6">
-        <v>36</v>
-      </c>
-      <c r="H20" s="6">
-        <v>28</v>
-      </c>
-      <c r="I20" s="6">
-        <v>34</v>
-      </c>
-      <c r="J20" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G20">
+        <v>0.113036116867661</v>
+      </c>
+      <c r="H20">
+        <v>1.7448247164753901</v>
+      </c>
+      <c r="I20">
+        <v>1.95209926424515</v>
+      </c>
+      <c r="J20">
+        <v>2.35382005527409</v>
+      </c>
+      <c r="K20">
+        <v>3.2253253842115299</v>
+      </c>
+      <c r="L20">
+        <v>1.4003681318562</v>
+      </c>
+      <c r="M20">
+        <v>0.659683475370485</v>
+      </c>
+      <c r="N20">
+        <v>1.3267368016116801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6">
-        <v>38</v>
-      </c>
-      <c r="G21" s="6">
-        <v>36</v>
-      </c>
-      <c r="H21" s="6">
-        <v>28</v>
-      </c>
-      <c r="I21" s="6">
-        <v>34</v>
-      </c>
-      <c r="J21" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G21">
+        <v>0.113036116867661</v>
+      </c>
+      <c r="H21">
+        <v>1.1217310095223201</v>
+      </c>
+      <c r="I21">
+        <v>0.24050684119542401</v>
+      </c>
+      <c r="J21">
+        <v>1.04213165989794</v>
+      </c>
+      <c r="K21">
+        <v>0.43444156216021101</v>
+      </c>
+      <c r="L21">
+        <v>1.2905983253971101</v>
+      </c>
+      <c r="M21">
+        <v>0.78855819130751803</v>
+      </c>
+      <c r="N21">
+        <v>0.94017525666063295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6">
-        <v>49</v>
-      </c>
-      <c r="H22" s="6">
-        <v>52</v>
-      </c>
-      <c r="I22" s="6">
-        <v>60</v>
-      </c>
-      <c r="J22" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G22">
+        <v>-0.61697315546572196</v>
+      </c>
+      <c r="H22">
+        <v>0.38398722603952401</v>
+      </c>
+      <c r="I22">
+        <v>1.5752444914550201</v>
+      </c>
+      <c r="J22">
+        <v>2.0912135722879901</v>
+      </c>
+      <c r="K22">
+        <v>2.9240707474796102</v>
+      </c>
+      <c r="L22">
+        <v>1.92117126523241</v>
+      </c>
+      <c r="M22">
+        <v>2.3364487278686998</v>
+      </c>
+      <c r="N22">
+        <v>3.7513046151625802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6">
-        <v>50</v>
-      </c>
-      <c r="G23" s="6">
-        <v>50</v>
-      </c>
-      <c r="H23" s="6">
-        <v>49</v>
-      </c>
-      <c r="I23" s="6">
-        <v>55</v>
-      </c>
-      <c r="J23" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>200 mg/vg</v>
+      </c>
+      <c r="G23">
+        <v>-0.61697315546572196</v>
+      </c>
+      <c r="H23">
+        <v>0.52934067344227198</v>
+      </c>
+      <c r="I23">
+        <v>0.39056196734523402</v>
+      </c>
+      <c r="J23">
+        <v>-0.20834959092271699</v>
+      </c>
+      <c r="K23">
+        <v>1.28361323359983</v>
+      </c>
+      <c r="L23">
+        <v>2.14404195358357</v>
+      </c>
+      <c r="M23">
+        <v>1.9151951535821199</v>
+      </c>
+      <c r="N23">
+        <v>2.2751783300610899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="6">
-        <v>58</v>
-      </c>
-      <c r="G24" s="6">
-        <v>49</v>
-      </c>
-      <c r="H24" s="6">
-        <v>52</v>
-      </c>
-      <c r="I24" s="6">
-        <v>49</v>
-      </c>
-      <c r="J24" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24">
+        <v>-1.21479800370346</v>
+      </c>
+      <c r="H24">
+        <v>-0.109857581735544</v>
+      </c>
+      <c r="I24">
+        <v>0.64492897661600102</v>
+      </c>
+      <c r="J24">
+        <v>1.1866684723216401</v>
+      </c>
+      <c r="K24">
+        <v>0.103998727874921</v>
+      </c>
+      <c r="L24">
+        <v>1.0473754253004901</v>
+      </c>
+      <c r="M24">
+        <v>1.3454512772453799</v>
+      </c>
+      <c r="N24">
+        <v>0.45342033227610901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6">
-        <v>58</v>
-      </c>
-      <c r="G25" s="6">
-        <v>49</v>
-      </c>
-      <c r="H25" s="6">
-        <v>52</v>
-      </c>
-      <c r="I25" s="6">
-        <v>49</v>
-      </c>
-      <c r="J25" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25">
+        <v>-1.21479800370346</v>
+      </c>
+      <c r="H25">
+        <v>1.56537507203267</v>
+      </c>
+      <c r="I25">
+        <v>2.09398229397243</v>
+      </c>
+      <c r="J25">
+        <v>-2.2931526170207699E-2</v>
+      </c>
+      <c r="K25">
+        <v>0.55506853252667399</v>
+      </c>
+      <c r="L25">
+        <v>0.25856134051239399</v>
+      </c>
+      <c r="M25">
+        <v>6.0277974656065297E-2</v>
+      </c>
+      <c r="N25">
+        <v>1.1869910063837901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6">
-        <v>47</v>
-      </c>
-      <c r="G26" s="6">
-        <v>56</v>
-      </c>
-      <c r="H26" s="6">
-        <v>53</v>
-      </c>
-      <c r="I26" s="6">
-        <v>58</v>
-      </c>
-      <c r="J26" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26">
+        <v>-0.36746395712998903</v>
+      </c>
+      <c r="H26">
+        <v>3.4107029278120399E-2</v>
+      </c>
+      <c r="I26">
+        <v>0.51500527872083202</v>
+      </c>
+      <c r="J26">
+        <v>-0.18658879191077099</v>
+      </c>
+      <c r="K26">
+        <v>-0.52089479546042605</v>
+      </c>
+      <c r="L26">
+        <v>1.5708522795702999</v>
+      </c>
+      <c r="M26">
+        <v>2.0401058094820899</v>
+      </c>
+      <c r="N26">
+        <v>2.8807753991018101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6">
-        <v>47</v>
-      </c>
-      <c r="G27" s="6">
-        <v>56</v>
-      </c>
-      <c r="H27" s="6">
-        <v>53</v>
-      </c>
-      <c r="I27" s="6">
-        <v>58</v>
-      </c>
-      <c r="J27" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27">
+        <v>-0.36746395712998903</v>
+      </c>
+      <c r="H27">
+        <v>-7.2957182725890996E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.41183067345484398</v>
+      </c>
+      <c r="J27">
+        <v>-0.113319135139414</v>
+      </c>
+      <c r="K27">
+        <v>0.75172839752171305</v>
+      </c>
+      <c r="L27">
+        <v>1.7699504002264399</v>
+      </c>
+      <c r="M27">
+        <v>2.2780667275256499</v>
+      </c>
+      <c r="N27">
+        <v>2.3853937329262598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="6">
-        <v>50</v>
-      </c>
-      <c r="G28" s="6">
-        <v>49</v>
-      </c>
-      <c r="H28" s="6">
-        <v>52</v>
-      </c>
-      <c r="I28" s="6">
-        <v>60</v>
-      </c>
-      <c r="J28" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28">
+        <v>1.4413639146153201</v>
+      </c>
+      <c r="H28">
+        <v>0.29510045807846003</v>
+      </c>
+      <c r="I28">
+        <v>0.72574471937336005</v>
+      </c>
+      <c r="J28">
+        <v>0.40652153180593298</v>
+      </c>
+      <c r="K28">
+        <v>0.66409559080936098</v>
+      </c>
+      <c r="L28">
+        <v>0.41615792794099798</v>
+      </c>
+      <c r="M28">
+        <v>-0.32323438331048798</v>
+      </c>
+      <c r="N28">
+        <v>0.76408650923015697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="6">
-        <v>50</v>
-      </c>
-      <c r="G29" s="6">
-        <v>49</v>
-      </c>
-      <c r="H29" s="6">
-        <v>52</v>
-      </c>
-      <c r="I29" s="6">
-        <v>60</v>
-      </c>
-      <c r="J29" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>1.4413639146153201</v>
+      </c>
+      <c r="H29">
+        <v>-1.08880553259066</v>
+      </c>
+      <c r="I29">
+        <v>0.112615530332038</v>
+      </c>
+      <c r="J29">
+        <v>0.33236603508005402</v>
+      </c>
+      <c r="K29">
+        <v>0.56648177726036097</v>
+      </c>
+      <c r="L29">
+        <v>1.2241320621140701</v>
+      </c>
+      <c r="M29">
+        <v>0.70442464635772195</v>
+      </c>
+      <c r="N29">
+        <v>0.460664510491339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="6">
-        <v>58</v>
-      </c>
-      <c r="G30" s="6">
-        <v>49</v>
-      </c>
-      <c r="H30" s="6">
-        <v>52</v>
-      </c>
-      <c r="I30" s="6">
-        <v>49</v>
-      </c>
-      <c r="J30" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30">
+        <v>-0.14882776237928</v>
+      </c>
+      <c r="H30">
+        <v>-1.37494658466547</v>
+      </c>
+      <c r="I30">
+        <v>-0.23564874009346801</v>
+      </c>
+      <c r="J30">
+        <v>0.65328909393173396</v>
+      </c>
+      <c r="K30">
+        <v>1.5006146768098501</v>
+      </c>
+      <c r="L30">
+        <v>0.85738329702213401</v>
+      </c>
+      <c r="M30">
+        <v>1.54649981857932</v>
+      </c>
+      <c r="N30">
+        <v>1.5854333274249699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="6">
-        <v>2</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="6">
-        <v>58</v>
-      </c>
-      <c r="G31" s="6">
-        <v>49</v>
-      </c>
-      <c r="H31" s="6">
-        <v>52</v>
-      </c>
-      <c r="I31" s="6">
-        <v>49</v>
-      </c>
-      <c r="J31" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31">
+        <v>-0.14882776237928</v>
+      </c>
+      <c r="H31">
+        <v>-0.13576830973589801</v>
+      </c>
+      <c r="I31">
+        <v>-0.13261762776925801</v>
+      </c>
+      <c r="J31">
+        <v>0.40623596831949998</v>
+      </c>
+      <c r="K31">
+        <v>0.55902337886891096</v>
+      </c>
+      <c r="L31">
+        <v>1.31341498345189</v>
+      </c>
+      <c r="M31">
+        <v>0.82675029775099795</v>
+      </c>
+      <c r="N31">
+        <v>-0.35526439379382102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="6">
-        <v>47</v>
-      </c>
-      <c r="G32" s="6">
-        <v>56</v>
-      </c>
-      <c r="H32" s="6">
-        <v>53</v>
-      </c>
-      <c r="I32" s="6">
-        <v>58</v>
-      </c>
-      <c r="J32" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>0.65506758960002298</v>
+      </c>
+      <c r="H32">
+        <v>0.178671643290677</v>
+      </c>
+      <c r="I32">
+        <v>1.2335727214802199</v>
+      </c>
+      <c r="J32">
+        <v>2.01009557572013</v>
+      </c>
+      <c r="K32">
+        <v>1.2886229605131201</v>
+      </c>
+      <c r="L32">
+        <v>1.97006913879308</v>
+      </c>
+      <c r="M32">
+        <v>1.1266583055511601</v>
+      </c>
+      <c r="N32">
+        <v>0.855619832489799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="6">
-        <v>47</v>
-      </c>
-      <c r="G33" s="6">
-        <v>56</v>
-      </c>
-      <c r="H33" s="6">
-        <v>53</v>
-      </c>
-      <c r="I33" s="6">
-        <v>58</v>
-      </c>
-      <c r="J33" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>0.65506758960002298</v>
+      </c>
+      <c r="H33">
+        <v>-0.41925119721361098</v>
+      </c>
+      <c r="I33">
+        <v>2.8187044693201501E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.81316022389966403</v>
+      </c>
+      <c r="K33">
+        <v>0.84635423954456401</v>
+      </c>
+      <c r="L33">
+        <v>1.4353663651297801</v>
+      </c>
+      <c r="M33">
+        <v>0.95803635321337499</v>
+      </c>
+      <c r="N33">
+        <v>1.20718795884958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="6">
-        <v>40</v>
-      </c>
-      <c r="G34" s="6">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6">
-        <v>40</v>
-      </c>
-      <c r="I34" s="6">
-        <v>43</v>
-      </c>
-      <c r="J34" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34">
+        <v>-0.31095282395058998</v>
+      </c>
+      <c r="H34">
+        <v>1.23196522126202</v>
+      </c>
+      <c r="I34">
+        <v>1.3156292995483101</v>
+      </c>
+      <c r="J34">
+        <v>2.0852837977298702</v>
+      </c>
+      <c r="K34">
+        <v>2.2649799870673699</v>
+      </c>
+      <c r="L34">
+        <v>3.13771079186222</v>
+      </c>
+      <c r="M34">
+        <v>4.7934292446054201</v>
+      </c>
+      <c r="N34">
+        <v>4.41803553160302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="6">
-        <v>40</v>
-      </c>
-      <c r="G35" s="6">
-        <v>43</v>
-      </c>
-      <c r="H35" s="6">
-        <v>40</v>
-      </c>
-      <c r="I35" s="6">
-        <v>43</v>
-      </c>
-      <c r="J35" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35">
+        <v>-0.31095282395058998</v>
+      </c>
+      <c r="H35">
+        <v>1.6523818487203901</v>
+      </c>
+      <c r="I35">
+        <v>1.7370113350666401</v>
+      </c>
+      <c r="J35">
+        <v>2.8266170733457501</v>
+      </c>
+      <c r="K35">
+        <v>3.9557368570873899</v>
+      </c>
+      <c r="L35">
+        <v>5.1112496724018399</v>
+      </c>
+      <c r="M35">
+        <v>6.0475188030654303</v>
+      </c>
+      <c r="N35">
+        <v>5.9019711311107397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="6">
-        <v>42</v>
-      </c>
-      <c r="G36" s="6">
-        <v>43</v>
-      </c>
-      <c r="H36" s="6">
-        <v>42</v>
-      </c>
-      <c r="I36" s="6">
-        <v>43</v>
-      </c>
-      <c r="J36" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36">
+        <v>0.29891293597051999</v>
+      </c>
+      <c r="H36">
+        <v>1.93291086239418</v>
+      </c>
+      <c r="I36">
+        <v>2.6373428895137301</v>
+      </c>
+      <c r="J36">
+        <v>3.0879570717903402</v>
+      </c>
+      <c r="K36">
+        <v>2.8318758249779901</v>
+      </c>
+      <c r="L36">
+        <v>4.0440949945564997</v>
+      </c>
+      <c r="M36">
+        <v>3.7638123781069899</v>
+      </c>
+      <c r="N36">
+        <v>5.2721501053481399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="6">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="6">
-        <v>42</v>
-      </c>
-      <c r="G37" s="6">
-        <v>43</v>
-      </c>
-      <c r="H37" s="6">
-        <v>42</v>
-      </c>
-      <c r="I37" s="6">
-        <v>43</v>
-      </c>
-      <c r="J37" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37">
+        <v>0.29891293597051999</v>
+      </c>
+      <c r="H37">
+        <v>2.3575303127636098</v>
+      </c>
+      <c r="I37">
+        <v>3.70673090038713</v>
+      </c>
+      <c r="J37">
+        <v>4.5992215281876998</v>
+      </c>
+      <c r="K37">
+        <v>5.3620649198655101</v>
+      </c>
+      <c r="L37">
+        <v>7.7243335954502204</v>
+      </c>
+      <c r="M37">
+        <v>7.4148154924543004</v>
+      </c>
+      <c r="N37">
+        <v>6.4712517188076397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="6">
-        <v>40</v>
-      </c>
-      <c r="G38" s="6">
-        <v>41</v>
-      </c>
-      <c r="H38" s="6">
-        <v>40</v>
-      </c>
-      <c r="I38" s="6">
-        <v>41</v>
-      </c>
-      <c r="J38" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38">
+        <v>-1.12050147779026</v>
+      </c>
+      <c r="H38">
+        <v>2.1305980644142801</v>
+      </c>
+      <c r="I38">
+        <v>2.61114114023025</v>
+      </c>
+      <c r="J38">
+        <v>2.5249109142060302</v>
+      </c>
+      <c r="K38">
+        <v>3.7521391249828802</v>
+      </c>
+      <c r="L38">
+        <v>4.0677845342788101</v>
+      </c>
+      <c r="M38">
+        <v>4.2402924342063999</v>
+      </c>
+      <c r="N38">
+        <v>4.7839858734778904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="6">
-        <v>2</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="6">
-        <v>40</v>
-      </c>
-      <c r="G39" s="6">
-        <v>41</v>
-      </c>
-      <c r="H39" s="6">
-        <v>40</v>
-      </c>
-      <c r="I39" s="6">
-        <v>41</v>
-      </c>
-      <c r="J39" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39">
+        <v>-1.12050147779026</v>
+      </c>
+      <c r="H39">
+        <v>0.71299627531064902</v>
+      </c>
+      <c r="I39">
+        <v>2.1686764515779502</v>
+      </c>
+      <c r="J39">
+        <v>3.3179488542982898</v>
+      </c>
+      <c r="K39">
+        <v>4.4919483016747002</v>
+      </c>
+      <c r="L39">
+        <v>5.3797907333728601</v>
+      </c>
+      <c r="M39">
+        <v>5.4014842211120504</v>
+      </c>
+      <c r="N39">
+        <v>6.2669370673863902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="6">
-        <v>30</v>
-      </c>
-      <c r="G40" s="6">
-        <v>31</v>
-      </c>
-      <c r="H40" s="6">
-        <v>27</v>
-      </c>
-      <c r="I40" s="6">
-        <v>30</v>
-      </c>
-      <c r="J40" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40">
+        <v>0.40455689976052001</v>
+      </c>
+      <c r="H40">
+        <v>1.5267938675169399</v>
+      </c>
+      <c r="I40">
+        <v>2.4580868089490902</v>
+      </c>
+      <c r="J40">
+        <v>3.5034294246604301</v>
+      </c>
+      <c r="K40">
+        <v>3.7047400541598501</v>
+      </c>
+      <c r="L40">
+        <v>3.5608127496839299</v>
+      </c>
+      <c r="M40">
+        <v>4.4270756708089198</v>
+      </c>
+      <c r="N40">
+        <v>4.5679683537751101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="6">
-        <v>30</v>
-      </c>
-      <c r="G41" s="6">
-        <v>31</v>
-      </c>
-      <c r="H41" s="6">
-        <v>27</v>
-      </c>
-      <c r="I41" s="6">
-        <v>30</v>
-      </c>
-      <c r="J41" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41">
+        <v>0.40455689976052001</v>
+      </c>
+      <c r="H41">
+        <v>3.9705931310821301</v>
+      </c>
+      <c r="I41">
+        <v>3.9746488831575202</v>
+      </c>
+      <c r="J41">
+        <v>4.8248711798554602</v>
+      </c>
+      <c r="K41">
+        <v>5.5799769960300498</v>
+      </c>
+      <c r="L41">
+        <v>5.6851749532929796</v>
+      </c>
+      <c r="M41">
+        <v>7.5205466110920103</v>
+      </c>
+      <c r="N41">
+        <v>7.6611336627340796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="6">
-        <v>30</v>
-      </c>
-      <c r="G42" s="6">
-        <v>35</v>
-      </c>
-      <c r="H42" s="6">
-        <v>25</v>
-      </c>
-      <c r="I42" s="6">
-        <v>31</v>
-      </c>
-      <c r="J42" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42">
+        <v>-1.02109382908838</v>
+      </c>
+      <c r="H42">
+        <v>2.72523974903025</v>
+      </c>
+      <c r="I42">
+        <v>3.57034518229037</v>
+      </c>
+      <c r="J42">
+        <v>4.6915112961561301</v>
+      </c>
+      <c r="K42">
+        <v>5.5284542221812503</v>
+      </c>
+      <c r="L42">
+        <v>6.2987354077136901</v>
+      </c>
+      <c r="M42">
+        <v>5.9869499999086697</v>
+      </c>
+      <c r="N42">
+        <v>6.7753245799830797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="6">
-        <v>30</v>
-      </c>
-      <c r="G43" s="6">
-        <v>35</v>
-      </c>
-      <c r="H43" s="6">
-        <v>25</v>
-      </c>
-      <c r="I43" s="6">
-        <v>31</v>
-      </c>
-      <c r="J43" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43">
+        <v>-1.02109382908838</v>
+      </c>
+      <c r="H43">
+        <v>0.95134865760041398</v>
+      </c>
+      <c r="I43">
+        <v>2.9508843327971901</v>
+      </c>
+      <c r="J43">
+        <v>3.7805214455017899</v>
+      </c>
+      <c r="K43">
+        <v>4.4853268673669602</v>
+      </c>
+      <c r="L43">
+        <v>4.7920033444885304</v>
+      </c>
+      <c r="M43">
+        <v>6.1413347141880701</v>
+      </c>
+      <c r="N43">
+        <v>6.0668199864536101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="6">
-        <v>38</v>
-      </c>
-      <c r="G44" s="6">
-        <v>36</v>
-      </c>
-      <c r="H44" s="6">
-        <v>28</v>
-      </c>
-      <c r="I44" s="6">
-        <v>34</v>
-      </c>
-      <c r="J44" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44">
+        <v>0.36588553702114501</v>
+      </c>
+      <c r="H44">
+        <v>0.32108895027983803</v>
+      </c>
+      <c r="I44">
+        <v>0.37349116134076898</v>
+      </c>
+      <c r="J44">
+        <v>1.9528591596257201</v>
+      </c>
+      <c r="K44">
+        <v>3.16455544072199</v>
+      </c>
+      <c r="L44">
+        <v>4.3815774058414201</v>
+      </c>
+      <c r="M44">
+        <v>4.4685196602003803</v>
+      </c>
+      <c r="N44">
+        <v>4.7904419404413403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="6">
-        <v>38</v>
-      </c>
-      <c r="G45" s="6">
-        <v>36</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45">
+        <v>0.36588553702114501</v>
+      </c>
+      <c r="H45">
+        <v>0.22681579411581701</v>
+      </c>
+      <c r="I45">
+        <v>1.17099446665787</v>
+      </c>
+      <c r="J45">
+        <v>0.75148206501873505</v>
+      </c>
+      <c r="K45">
+        <v>2.1242429011428001</v>
+      </c>
+      <c r="L45">
+        <v>2.6326726447759299</v>
+      </c>
+      <c r="M45">
+        <v>2.8663888777772701</v>
+      </c>
+      <c r="N45">
+        <v>3.90456834936926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>22</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46">
+        <v>0.76795766603180404</v>
+      </c>
+      <c r="H46">
+        <v>-0.152107226962818</v>
+      </c>
+      <c r="I46">
+        <v>1.02976087870319</v>
+      </c>
+      <c r="J46">
+        <v>1.8675169944321299</v>
+      </c>
+      <c r="K46">
+        <v>2.3012668675733399</v>
+      </c>
+      <c r="L46">
+        <v>3.6353163942640898</v>
+      </c>
+      <c r="M46">
+        <v>4.9797029693891304</v>
+      </c>
+      <c r="N46">
+        <v>4.5388158518432702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47">
+        <v>0.76795766603180404</v>
+      </c>
+      <c r="H47">
+        <v>3.4864175361103098</v>
+      </c>
+      <c r="I47">
+        <v>4.0604049260528399</v>
+      </c>
+      <c r="J47">
+        <v>3.7633174000658398</v>
+      </c>
+      <c r="K47">
+        <v>4.5575933442213197</v>
+      </c>
+      <c r="L47">
+        <v>4.27054174822982</v>
+      </c>
+      <c r="M47">
+        <v>4.8346652669175496</v>
+      </c>
+      <c r="N47">
+        <v>4.57489638049167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48">
+        <v>-0.55848114046272301</v>
+      </c>
+      <c r="H48">
+        <v>0.22614850090719199</v>
+      </c>
+      <c r="I48">
+        <v>1.2768610392048001</v>
+      </c>
+      <c r="J48">
+        <v>2.1459099787666802</v>
+      </c>
+      <c r="K48">
+        <v>3.11846406585415</v>
+      </c>
+      <c r="L48">
+        <v>3.69487815497234</v>
+      </c>
+      <c r="M48">
+        <v>3.99522762294853</v>
+      </c>
+      <c r="N48">
+        <v>4.5112837821820904</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49">
+        <v>-0.55848114046272301</v>
+      </c>
+      <c r="H49">
+        <v>1.1937735759840999</v>
+      </c>
+      <c r="I49">
+        <v>2.1069683380175199</v>
+      </c>
+      <c r="J49">
+        <v>2.5019463762190401</v>
+      </c>
+      <c r="K49">
+        <v>3.1787482810909502</v>
+      </c>
+      <c r="L49">
+        <v>3.03455958492524</v>
+      </c>
+      <c r="M49">
+        <v>3.3948606126824399</v>
+      </c>
+      <c r="N49">
+        <v>3.0635353258409102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50">
+        <v>0.47255251894759398</v>
+      </c>
+      <c r="H50">
+        <v>1.4747841450404799</v>
+      </c>
+      <c r="I50">
+        <v>0.95780281774688902</v>
+      </c>
+      <c r="J50">
+        <v>2.1865285561444598</v>
+      </c>
+      <c r="K50">
+        <v>2.7451512025579698</v>
+      </c>
+      <c r="L50">
+        <v>2.7981433843358499</v>
+      </c>
+      <c r="M50">
+        <v>3.56468841368791</v>
+      </c>
+      <c r="N50">
+        <v>4.1754265829113804</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51">
+        <v>0.47255251894759398</v>
+      </c>
+      <c r="H51">
+        <v>1.46842514976197</v>
+      </c>
+      <c r="I51">
+        <v>2.07897691548383</v>
+      </c>
+      <c r="J51">
+        <v>3.07887443592975</v>
+      </c>
+      <c r="K51">
+        <v>4.4193173472921297</v>
+      </c>
+      <c r="L51">
+        <v>4.9586003118287696</v>
+      </c>
+      <c r="M51">
+        <v>6.0890580032686197</v>
+      </c>
+      <c r="N51">
+        <v>6.6082736656461503</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52">
+        <v>-2.4950832984247602</v>
+      </c>
+      <c r="H52">
+        <v>2.8400896744680399</v>
+      </c>
+      <c r="I52">
+        <v>2.4432167777933298</v>
+      </c>
+      <c r="J52">
+        <v>2.6462139837828902</v>
+      </c>
+      <c r="K52">
+        <v>3.49313803794821</v>
+      </c>
+      <c r="L52">
+        <v>4.5220376415781702</v>
+      </c>
+      <c r="M52">
+        <v>5.72055422851692</v>
+      </c>
+      <c r="N52">
+        <v>5.9306926066945804</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53">
+        <v>-2.4950832984247602</v>
+      </c>
+      <c r="H53">
+        <v>0.31414482947460298</v>
+      </c>
+      <c r="I53">
+        <v>1.70469283721707</v>
+      </c>
+      <c r="J53">
+        <v>2.1482730565342401</v>
+      </c>
+      <c r="K53">
+        <v>3.4349783887682199</v>
+      </c>
+      <c r="L53">
+        <v>3.90029952033847</v>
+      </c>
+      <c r="M53">
+        <v>3.7444061604071002</v>
+      </c>
+      <c r="N53">
+        <v>5.0390455708753796</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54">
+        <v>1.5419594043740501</v>
+      </c>
+      <c r="H54">
+        <v>7.1876326616502201E-3</v>
+      </c>
+      <c r="I54">
+        <v>-1.0186698200375</v>
+      </c>
+      <c r="J54">
+        <v>-0.73997947612994797</v>
+      </c>
+      <c r="K54">
+        <v>-1.28449117421759</v>
+      </c>
+      <c r="L54">
+        <v>-0.60465903998941595</v>
+      </c>
+      <c r="M54">
+        <v>-0.96714809830580595</v>
+      </c>
+      <c r="N54">
+        <v>-0.26538304977348298</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55">
+        <v>1.5419594043740501</v>
+      </c>
+      <c r="H55">
+        <v>0.121242346349673</v>
+      </c>
+      <c r="I55">
+        <v>0.55392480053579096</v>
+      </c>
+      <c r="J55">
+        <v>-0.12351791444513401</v>
+      </c>
+      <c r="K55">
+        <v>-0.18546339816329699</v>
+      </c>
+      <c r="L55">
+        <v>0.69577910501321205</v>
+      </c>
+      <c r="M55">
+        <v>0.31650263063843798</v>
+      </c>
+      <c r="N55">
+        <v>0.64901390491817901</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56">
+        <v>2.0024287958988798</v>
+      </c>
+      <c r="H56">
+        <v>-0.41241740274490502</v>
+      </c>
+      <c r="I56">
+        <v>-1.4183741161229599</v>
+      </c>
+      <c r="J56">
+        <v>-1.7633822562219199</v>
+      </c>
+      <c r="K56">
+        <v>-0.140998843182502</v>
+      </c>
+      <c r="L56">
+        <v>-0.59901338114036895</v>
+      </c>
+      <c r="M56">
+        <v>-1.1190210978817501</v>
+      </c>
+      <c r="N56">
+        <v>-0.81729789730703795</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57">
+        <v>2.0024287958988798</v>
+      </c>
+      <c r="H57">
+        <v>-0.85055059798633903</v>
+      </c>
+      <c r="I57">
+        <v>-1.2753116433182501</v>
+      </c>
+      <c r="J57">
+        <v>-0.13353176984783199</v>
+      </c>
+      <c r="K57">
+        <v>0.70540167145336496</v>
+      </c>
+      <c r="L57">
+        <v>0.966092722943243</v>
+      </c>
+      <c r="M57">
+        <v>1.6089800910341301</v>
+      </c>
+      <c r="N57">
+        <v>1.4333154532685199</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
         <v>28</v>
       </c>
-      <c r="I45" s="6">
-        <v>34</v>
-      </c>
-      <c r="J45" s="6">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58">
+        <v>0.38810422164820002</v>
+      </c>
+      <c r="H58">
+        <v>1.01262994266926</v>
+      </c>
+      <c r="I58">
+        <v>0.93575277382287203</v>
+      </c>
+      <c r="J58">
+        <v>0.63584247711535002</v>
+      </c>
+      <c r="K58">
+        <v>0.43871498539241399</v>
+      </c>
+      <c r="L58">
+        <v>0.90360454220546704</v>
+      </c>
+      <c r="M58">
+        <v>0.72750036954014197</v>
+      </c>
+      <c r="N58">
+        <v>0.51831280576423699</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59">
+        <v>0.38810422164820002</v>
+      </c>
+      <c r="H59">
+        <v>0.13742776725360401</v>
+      </c>
+      <c r="I59">
+        <v>0.65187721262186105</v>
+      </c>
+      <c r="J59">
+        <v>0.12683635501723101</v>
+      </c>
+      <c r="K59">
+        <v>0.42387555656895998</v>
+      </c>
+      <c r="L59">
+        <v>1.2032011189290199</v>
+      </c>
+      <c r="M59">
+        <v>1.22255601218712</v>
+      </c>
+      <c r="N59">
+        <v>0.92580634524762695</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60">
+        <v>-0.690821907340049</v>
+      </c>
+      <c r="H60">
+        <v>0.38036245440129801</v>
+      </c>
+      <c r="I60">
+        <v>0.453825783583654</v>
+      </c>
+      <c r="J60">
+        <v>4.66810535153881E-2</v>
+      </c>
+      <c r="K60">
+        <v>-1.1488235460857801</v>
+      </c>
+      <c r="L60">
+        <v>-1.5678908871531301</v>
+      </c>
+      <c r="M60">
+        <v>-0.83931522202722397</v>
+      </c>
+      <c r="N60">
+        <v>-1.1653680779945199</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61">
+        <v>-0.690821907340049</v>
+      </c>
+      <c r="H61">
+        <v>-0.61825546105115903</v>
+      </c>
+      <c r="I61">
+        <v>-1.05902293754972</v>
+      </c>
+      <c r="J61">
+        <v>-2.17593348885379</v>
+      </c>
+      <c r="K61">
+        <v>-0.82553782425888</v>
+      </c>
+      <c r="L61">
+        <v>-0.95276589453168703</v>
+      </c>
+      <c r="M61">
+        <v>-1.86951635550338</v>
+      </c>
+      <c r="N61">
+        <v>-1.5640628300572601</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62">
+        <v>-1.5672598117088401</v>
+      </c>
+      <c r="H62">
+        <v>-1.45533283384312</v>
+      </c>
+      <c r="I62">
+        <v>-0.88785633409583697</v>
+      </c>
+      <c r="J62">
+        <v>-1.0285731340269599</v>
+      </c>
+      <c r="K62">
+        <v>-2.2138445776411602</v>
+      </c>
+      <c r="L62">
+        <v>-0.83970087844663499</v>
+      </c>
+      <c r="M62">
+        <v>-1.2122648986720801</v>
+      </c>
+      <c r="N62">
+        <v>-1.26253680496401</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63">
+        <v>-1.5672598117088401</v>
+      </c>
+      <c r="H63">
+        <v>-1.8532456209047301</v>
+      </c>
+      <c r="I63">
+        <v>-1.3846592208375199</v>
+      </c>
+      <c r="J63">
+        <v>-1.1279658572703199</v>
+      </c>
+      <c r="K63">
+        <v>-0.891251744380961</v>
+      </c>
+      <c r="L63">
+        <v>0.49267525350941799</v>
+      </c>
+      <c r="M63">
+        <v>0.59616660501709096</v>
+      </c>
+      <c r="N63">
+        <v>0.73827106999075598</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
